--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-09-28 06:57:24</t>
+    <t>2016-09-28 06:58:20</t>
   </si>
   <si>
     <t>b.md</t>
@@ -121,7 +121,7 @@
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-09-28 06:57:00</t>
+    <t>2016-09-28 06:58:09</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-09-28 06:58:20</t>
@@ -124,13 +124,16 @@
     <t>2016-09-28 06:58:09</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-09-28 06:59:02</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-09-28 06:59:18</t>
   </si>
 </sst>
 </file>
@@ -264,8 +267,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -360,14 +363,14 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -451,11 +454,11 @@
       <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>36</v>
@@ -501,11 +504,11 @@
       <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>36</v>
@@ -529,7 +532,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -548,14 +553,14 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -639,14 +644,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -689,14 +694,14 @@
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -717,7 +722,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -61,6 +61,12 @@
     <t>e2e\b.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-09-28 07:00:09</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,10 +136,22 @@
     <t>True</t>
   </si>
   <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-09-28 06:59:58</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/723d0cac486c66411ecf89682edb1e5c3457caad/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/a99b83f99220bf3db01c749a93e51235a0532a5f/e2e/b.md.</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
     <t>2016-09-28 06:59:18</t>
+  </si>
+  <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -332,13 +350,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -376,57 +394,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -440,40 +458,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -487,46 +505,46 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -566,57 +584,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -630,16 +648,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -648,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -677,46 +695,46 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -61,7 +61,7 @@
     <t>e2e\b.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-09-28 07:00:09</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-09 07:26:08</t>
+    <t>2016-10-09 07:26:54</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>7c7dbad5-b25f-4e7b-8aa2-e75b26a1ca2b.53b48923ef31ca583390d1e9f5b3aec1b1ab15ac.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-09 07:25:55</t>
+    <t>2016-10-09 07:26:44</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-10-09 07:26:54</t>
@@ -118,13 +118,16 @@
     <t>2016-10-09 07:26:44</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-10-09 07:27:26</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>7c7dbad5-b25f-4e7b-8aa2-e75b26a1ca2b.53b48923ef31ca583390d1e9f5b3aec1b1ab15ac.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-09 07:27:41</t>
   </si>
 </sst>
 </file>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,14 +333,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -421,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -449,6 +452,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="7c7dbad5-b25f-4e7b-8aa2-e75b26a1ca2b.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="7c7dbad5-b25f-4e7b-8aa2-e75b26a1ca2b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -467,14 +471,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -558,14 +562,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -586,6 +590,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="7c7dbad5-b25f-4e7b-8aa2-e75b26a1ca2b.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="7c7dbad5-b25f-4e7b-8aa2-e75b26a1ca2b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -118,16 +118,16 @@
     <t>2016-10-09 07:26:44</t>
   </si>
   <si>
-    <t>2016-10-09 07:27:26</t>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
+    <t>The file with file hash 36ec3918de779b4b0f004309429f72f071337272 is not out of handoff scope.</t>
+  </si>
+  <si>
     <t>7c7dbad5-b25f-4e7b-8aa2-e75b26a1ca2b.53b48923ef31ca583390d1e9f5b3aec1b1ab15ac.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-09 07:27:41</t>
   </si>
 </sst>
 </file>
@@ -339,14 +339,14 @@
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -424,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -446,13 +446,12 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="7c7dbad5-b25f-4e7b-8aa2-e75b26a1ca2b.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="7c7dbad5-b25f-4e7b-8aa2-e75b26a1ca2b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -477,14 +476,14 @@
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,19 +556,19 @@
         <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -584,13 +583,12 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="7c7dbad5-b25f-4e7b-8aa2-e75b26a1ca2b.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="7c7dbad5-b25f-4e7b-8aa2-e75b26a1ca2b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-09 07:32:42</t>
+    <t>2016-10-09 07:33:31</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>97e45e52-ca89-4b00-9f5f-2e67656f51e8.9ea538977cbb46559944e7dad1802aceab817d49.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-09 07:32:30</t>
+    <t>2016-10-09 07:33:20</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-10-09 07:33:31</t>
@@ -118,13 +118,16 @@
     <t>2016-10-09 07:33:20</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-10-09 07:34:01</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>97e45e52-ca89-4b00-9f5f-2e67656f51e8.9ea538977cbb46559944e7dad1802aceab817d49.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-09 07:34:19</t>
   </si>
 </sst>
 </file>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,14 +333,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -421,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -449,6 +452,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="97e45e52-ca89-4b00-9f5f-2e67656f51e8.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="97e45e52-ca89-4b00-9f5f-2e67656f51e8.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -467,14 +471,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -558,14 +562,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -586,6 +590,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="97e45e52-ca89-4b00-9f5f-2e67656f51e8.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="97e45e52-ca89-4b00-9f5f-2e67656f51e8.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -118,16 +118,16 @@
     <t>2016-10-09 07:33:20</t>
   </si>
   <si>
-    <t>2016-10-09 07:34:01</t>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
+    <t>The file with file hash ccc61dc367fec173780dd53075512dd5b4b50084 is not out of handoff scope.</t>
+  </si>
+  <si>
     <t>97e45e52-ca89-4b00-9f5f-2e67656f51e8.9ea538977cbb46559944e7dad1802aceab817d49.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-09 07:34:19</t>
   </si>
 </sst>
 </file>
@@ -339,14 +339,14 @@
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -424,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -446,13 +446,12 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="97e45e52-ca89-4b00-9f5f-2e67656f51e8.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="97e45e52-ca89-4b00-9f5f-2e67656f51e8.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -477,14 +476,14 @@
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,19 +556,19 @@
         <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -584,13 +583,12 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="97e45e52-ca89-4b00-9f5f-2e67656f51e8.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="97e45e52-ca89-4b00-9f5f-2e67656f51e8.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-09 08:24:58</t>
+    <t>2016-10-09 08:25:34</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>0e5732f1-4137-4e33-9bb7-8d05726bb25f.f7cb5818a76e5ccb2155c81d8c22e1548fb06308.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-09 08:24:46</t>
+    <t>2016-10-09 08:25:24</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-10-09 08:25:34</t>
@@ -118,13 +118,16 @@
     <t>2016-10-09 08:25:24</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-10-09 08:26:08</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>0e5732f1-4137-4e33-9bb7-8d05726bb25f.f7cb5818a76e5ccb2155c81d8c22e1548fb06308.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-09 08:26:23</t>
   </si>
 </sst>
 </file>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,14 +333,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -421,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -449,6 +452,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0e5732f1-4137-4e33-9bb7-8d05726bb25f.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="0e5732f1-4137-4e33-9bb7-8d05726bb25f.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -467,14 +471,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -558,14 +562,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -586,6 +590,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0e5732f1-4137-4e33-9bb7-8d05726bb25f.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="0e5732f1-4137-4e33-9bb7-8d05726bb25f.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -118,16 +118,16 @@
     <t>2016-10-09 08:25:24</t>
   </si>
   <si>
-    <t>2016-10-09 08:26:08</t>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
+    <t>The handback version of file with file hash 2e769d2766f9f27b7f6478a5ccd03f2dcd4358fb is lower than latest handed back file.</t>
+  </si>
+  <si>
     <t>0e5732f1-4137-4e33-9bb7-8d05726bb25f.f7cb5818a76e5ccb2155c81d8c22e1548fb06308.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-09 08:26:23</t>
   </si>
 </sst>
 </file>
@@ -339,14 +339,14 @@
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -424,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -446,13 +446,12 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0e5732f1-4137-4e33-9bb7-8d05726bb25f.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="0e5732f1-4137-4e33-9bb7-8d05726bb25f.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -477,14 +476,14 @@
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,19 +556,19 @@
         <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -584,13 +583,12 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0e5732f1-4137-4e33-9bb7-8d05726bb25f.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="0e5732f1-4137-4e33-9bb7-8d05726bb25f.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-10 01:55:57</t>
+    <t>2016-10-10 01:56:42</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>c4e3dbbf-4c88-499e-8276-e007cdfb246b.21090b282661b99bb05a84f8b015f65b88676226.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 01:55:45</t>
+    <t>2016-10-10 01:56:32</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-10-10 01:56:42</t>
@@ -118,13 +118,16 @@
     <t>2016-10-10 01:56:32</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-10-10 01:57:14</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>c4e3dbbf-4c88-499e-8276-e007cdfb246b.21090b282661b99bb05a84f8b015f65b88676226.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 01:57:30</t>
   </si>
 </sst>
 </file>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,14 +333,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -421,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -449,6 +452,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="c4e3dbbf-4c88-499e-8276-e007cdfb246b.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="c4e3dbbf-4c88-499e-8276-e007cdfb246b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -467,14 +471,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -558,14 +562,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -586,6 +590,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="c4e3dbbf-4c88-499e-8276-e007cdfb246b.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="c4e3dbbf-4c88-499e-8276-e007cdfb246b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-10 03:50:57</t>
+    <t>2016-10-10 03:51:35</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>dc8eea32-03c6-4b84-b475-18862fce8407.d2db2f6dc4e90cb4edd677519e0cb8093b286588.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 03:50:26</t>
+    <t>2016-10-10 03:51:25</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handback transform failed</t>
   </si>
   <si>
     <t>2016-10-10 03:51:35</t>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>The translationStateItem 6cfb131bc7167d1c9d969dbc3dfc212f8169e884 is not found.</t>
   </si>
   <si>
     <t>dc8eea32-03c6-4b84-b475-18862fce8407.d2db2f6dc4e90cb4edd677519e0cb8093b286588.de-de.xlf</t>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="24.7426795959473" customWidth="1"/>
+    <col min="6" max="6" width="24.7426795959473" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,7 +333,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="24.7426795959473" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -343,7 +346,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -443,7 +446,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -467,7 +470,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="24.7426795959473" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -480,7 +483,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -553,7 +556,7 @@
         <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -580,7 +583,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-10 03:57:57</t>
+    <t>2016-10-10 03:58:33</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>0b1dae01-fbb4-4dae-b1d5-8edca1c82c92.2eecb34b7298ada4817735de19cb1407acd5f48f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 03:57:46</t>
+    <t>2016-10-10 03:58:22</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handback transform failed</t>
   </si>
   <si>
     <t>2016-10-10 03:58:33</t>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>The translationStateItem 40c206b14f66a769f1f660de11f1e570d7b3b1a3 is not found.</t>
   </si>
   <si>
     <t>0b1dae01-fbb4-4dae-b1d5-8edca1c82c92.2eecb34b7298ada4817735de19cb1407acd5f48f.de-de.xlf</t>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="24.7426795959473" customWidth="1"/>
+    <col min="6" max="6" width="24.7426795959473" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,7 +333,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="24.7426795959473" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -343,7 +346,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -443,7 +446,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -467,7 +470,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="24.7426795959473" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -480,7 +483,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -553,7 +556,7 @@
         <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -580,7 +583,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-10 04:05:20</t>
+    <t>2016-10-10 04:06:00</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>5e4e2a29-2886-44f1-8905-6ac1234aff00.0bf75af0a1af17672034fc8975456fff28f8b566.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 04:05:09</t>
+    <t>2016-10-10 04:05:48</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handback transform failed</t>
   </si>
   <si>
     <t>2016-10-10 04:06:00</t>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>The translationStateItem f875148175623cd34b302a29281ae7cf7bea90f4 is not found.</t>
   </si>
   <si>
     <t>5e4e2a29-2886-44f1-8905-6ac1234aff00.0bf75af0a1af17672034fc8975456fff28f8b566.de-de.xlf</t>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="24.7426795959473" customWidth="1"/>
+    <col min="6" max="6" width="24.7426795959473" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,7 +333,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="24.7426795959473" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -343,7 +346,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -443,7 +446,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -467,7 +470,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="24.7426795959473" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -480,7 +483,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -553,7 +556,7 @@
         <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -580,7 +583,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-10 04:11:01</t>
+    <t>2016-10-10 04:11:41</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>3d79da27-8bc7-43c8-8955-26f52b3d55b2.e193cb2d197181cd65fdfc3f3f6aadd21574d0ed.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 04:10:49</t>
+    <t>2016-10-10 04:11:30</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handback transform failed</t>
   </si>
   <si>
     <t>2016-10-10 04:11:41</t>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>The translationStateItem c8239dac9781b0284b70928afd51cfb0125338af is not found.</t>
   </si>
   <si>
     <t>3d79da27-8bc7-43c8-8955-26f52b3d55b2.e193cb2d197181cd65fdfc3f3f6aadd21574d0ed.de-de.xlf</t>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="24.7426795959473" customWidth="1"/>
+    <col min="6" max="6" width="24.7426795959473" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,7 +333,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="24.7426795959473" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -343,7 +346,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -443,7 +446,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -467,7 +470,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="24.7426795959473" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -480,7 +483,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -553,7 +556,7 @@
         <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -580,7 +583,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-10 05:10:58</t>
+    <t>2016-10-10 05:11:45</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>336d59b5-9d41-4111-897f-d668f750aa47.96bcac6a1130ef501ec5ed3ca1c0100213c502df.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 05:10:46</t>
+    <t>2016-10-10 05:11:35</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handback transform failed</t>
   </si>
   <si>
     <t>2016-10-10 05:11:45</t>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>The translationStateItem 980dd4e7afbfe618b50c9f45743d5bb988b4b0b3 is not found.</t>
   </si>
   <si>
     <t>336d59b5-9d41-4111-897f-d668f750aa47.96bcac6a1130ef501ec5ed3ca1c0100213c502df.de-de.xlf</t>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="24.7426795959473" customWidth="1"/>
+    <col min="6" max="6" width="24.7426795959473" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,7 +333,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="24.7426795959473" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -343,7 +346,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -443,7 +446,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -467,7 +470,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="24.7426795959473" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -480,7 +483,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -553,7 +556,7 @@
         <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -580,7 +583,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-10 05:21:31</t>
+    <t>2016-10-10 05:22:20</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>c9f8ac0b-5c8c-4286-8ae5-9fde138acf9a.0dc094e88f77677c2731145815ab97ca75f7ef3f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 05:21:19</t>
+    <t>2016-10-10 05:22:10</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-10 05:30:48</t>
+    <t>2016-10-10 05:31:43</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>701ff851-b467-4ea7-9d00-7b659ee80e74.a7439a7099963fc5ef61a5287be88659148def37.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 05:30:36</t>
+    <t>2016-10-10 05:31:33</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-10 05:59:53</t>
+    <t>2016-10-10 06:00:43</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>8bcaab1d-fa21-4c83-a12f-0966cbf71a0d.3c2c869cefc0442110cea0ce13b4193c20802b41.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 05:59:41</t>
+    <t>2016-10-10 06:00:32</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-10-10 06:00:43</t>
@@ -118,13 +118,16 @@
     <t>2016-10-10 06:00:32</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-10-10 06:09:10</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>8bcaab1d-fa21-4c83-a12f-0966cbf71a0d.3c2c869cefc0442110cea0ce13b4193c20802b41.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 06:09:30</t>
   </si>
 </sst>
 </file>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,14 +333,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -421,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -449,6 +452,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8bcaab1d-fa21-4c83-a12f-0966cbf71a0d.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="8bcaab1d-fa21-4c83-a12f-0966cbf71a0d.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -467,14 +471,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -558,14 +562,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -586,6 +590,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8bcaab1d-fa21-4c83-a12f-0966cbf71a0d.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="8bcaab1d-fa21-4c83-a12f-0966cbf71a0d.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -118,16 +118,16 @@
     <t>2016-10-10 06:00:32</t>
   </si>
   <si>
-    <t>2016-10-10 06:09:10</t>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
+    <t>The given key was not present in the dictionary.</t>
+  </si>
+  <si>
     <t>8bcaab1d-fa21-4c83-a12f-0966cbf71a0d.3c2c869cefc0442110cea0ce13b4193c20802b41.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 06:09:30</t>
   </si>
 </sst>
 </file>
@@ -339,14 +339,14 @@
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -424,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -446,13 +446,12 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8bcaab1d-fa21-4c83-a12f-0966cbf71a0d.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="8bcaab1d-fa21-4c83-a12f-0966cbf71a0d.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -477,14 +476,14 @@
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,19 +556,19 @@
         <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -584,13 +583,12 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8bcaab1d-fa21-4c83-a12f-0966cbf71a0d.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="8bcaab1d-fa21-4c83-a12f-0966cbf71a0d.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-10 06:15:46</t>
+    <t>2016-10-10 06:16:24</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>6d84fccc-089b-4e86-bd98-45033ca9cd74.5b61347a03383bec32f73e08d8b3e3ecd619976f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 06:15:35</t>
+    <t>2016-10-10 06:16:13</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>File Name</t>
   </si>
@@ -49,6 +49,9 @@
     <t/>
   </si>
   <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
@@ -118,13 +121,16 @@
     <t>2016-10-10 06:16:13</t>
   </si>
   <si>
+    <t>2016-10-10 06:17:00</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>6d84fccc-089b-4e86-bd98-45033ca9cd74.5b61347a03383bec32f73e08d8b3e3ecd619976f.de-de.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>6d84fccc-089b-4e86-bd98-45033ca9cd74.5b61347a03383bec32f73e08d8b3e3ecd619976f.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -258,7 +264,7 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
     <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
@@ -303,10 +309,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -330,14 +336,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -348,52 +354,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -407,40 +413,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -449,6 +455,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="6d84fccc-089b-4e86-bd98-45033ca9cd74.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="6d84fccc-089b-4e86-bd98-45033ca9cd74.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -485,52 +492,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -541,43 +548,43 @@
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-10 06:36:16</t>
+    <t>2016-10-10 06:36:55</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>3135611b-9e50-4dff-b862-c9ce08a97f02.c73e21a9a141ba993e077eee9cd57972ce52de00.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 06:36:05</t>
+    <t>2016-10-10 06:36:44</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-10-10 06:36:55</t>
@@ -118,13 +118,16 @@
     <t>2016-10-10 06:36:44</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-10-10 07:00:50</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>3135611b-9e50-4dff-b862-c9ce08a97f02.c73e21a9a141ba993e077eee9cd57972ce52de00.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 07:01:12</t>
   </si>
 </sst>
 </file>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,14 +333,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -421,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -449,6 +452,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="3135611b-9e50-4dff-b862-c9ce08a97f02.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="3135611b-9e50-4dff-b862-c9ce08a97f02.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -467,14 +471,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -558,14 +562,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -586,6 +590,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="3135611b-9e50-4dff-b862-c9ce08a97f02.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="3135611b-9e50-4dff-b862-c9ce08a97f02.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -118,16 +118,16 @@
     <t>2016-10-10 06:36:44</t>
   </si>
   <si>
-    <t>2016-10-10 07:00:50</t>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
+    <t>The given key was not present in the dictionary.</t>
+  </si>
+  <si>
     <t>3135611b-9e50-4dff-b862-c9ce08a97f02.c73e21a9a141ba993e077eee9cd57972ce52de00.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 07:01:12</t>
   </si>
 </sst>
 </file>
@@ -339,14 +339,14 @@
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -424,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -446,13 +446,12 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="3135611b-9e50-4dff-b862-c9ce08a97f02.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="3135611b-9e50-4dff-b862-c9ce08a97f02.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -477,14 +476,14 @@
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,19 +556,19 @@
         <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -584,13 +583,12 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="3135611b-9e50-4dff-b862-c9ce08a97f02.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="3135611b-9e50-4dff-b862-c9ce08a97f02.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-10 07:07:28</t>
+    <t>2016-10-10 07:08:20</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>edc538f4-45ab-4d48-a06d-db2a608d1a89.b8a770874777c76c4b5256ee553453b2fe30b1f1.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 07:07:15</t>
+    <t>2016-10-10 07:08:09</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-10-10 07:08:20</t>
@@ -118,13 +118,16 @@
     <t>2016-10-10 07:08:09</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-10-10 07:09:06</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>edc538f4-45ab-4d48-a06d-db2a608d1a89.b8a770874777c76c4b5256ee553453b2fe30b1f1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 07:09:24</t>
   </si>
 </sst>
 </file>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,14 +333,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -421,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -449,6 +452,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="edc538f4-45ab-4d48-a06d-db2a608d1a89.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="edc538f4-45ab-4d48-a06d-db2a608d1a89.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -467,14 +471,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -558,14 +562,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -586,6 +590,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="edc538f4-45ab-4d48-a06d-db2a608d1a89.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="edc538f4-45ab-4d48-a06d-db2a608d1a89.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -118,16 +118,16 @@
     <t>2016-10-10 07:08:09</t>
   </si>
   <si>
-    <t>2016-10-10 07:09:06</t>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
+    <t>The given key was not present in the dictionary.</t>
+  </si>
+  <si>
     <t>edc538f4-45ab-4d48-a06d-db2a608d1a89.b8a770874777c76c4b5256ee553453b2fe30b1f1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 07:09:24</t>
   </si>
 </sst>
 </file>
@@ -339,14 +339,14 @@
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -424,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -446,13 +446,12 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="edc538f4-45ab-4d48-a06d-db2a608d1a89.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="edc538f4-45ab-4d48-a06d-db2a608d1a89.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -477,14 +476,14 @@
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,19 +556,19 @@
         <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -584,13 +583,12 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="edc538f4-45ab-4d48-a06d-db2a608d1a89.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="edc538f4-45ab-4d48-a06d-db2a608d1a89.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-10 07:52:33</t>
+    <t>2016-10-10 07:53:08</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>b6b8e88a-aadc-4c3b-9fcf-81df761dbe83.7ab9bd96fadad6c1ec631ce70a523ae80d9db5ce.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 07:52:19</t>
+    <t>2016-10-10 07:52:58</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-10-10 07:53:08</t>
@@ -118,13 +118,16 @@
     <t>2016-10-10 07:52:58</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-10-10 07:53:42</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>b6b8e88a-aadc-4c3b-9fcf-81df761dbe83.7ab9bd96fadad6c1ec631ce70a523ae80d9db5ce.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 07:53:59</t>
   </si>
 </sst>
 </file>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,14 +333,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -421,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -449,6 +452,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="b6b8e88a-aadc-4c3b-9fcf-81df761dbe83.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="b6b8e88a-aadc-4c3b-9fcf-81df761dbe83.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -467,14 +471,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -558,14 +562,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -586,6 +590,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="b6b8e88a-aadc-4c3b-9fcf-81df761dbe83.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="b6b8e88a-aadc-4c3b-9fcf-81df761dbe83.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-10 09:05:59</t>
+    <t>2016-10-10 09:06:48</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>f772f979-6036-4952-a3bc-cc4dfb81dcf6.cf5fd9010dd8adc1de6976be871bc5be00717132.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 09:05:48</t>
+    <t>2016-10-10 09:06:37</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-10-10 09:06:48</t>
@@ -118,13 +118,16 @@
     <t>2016-10-10 09:06:37</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-10-10 09:07:20</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>f772f979-6036-4952-a3bc-cc4dfb81dcf6.cf5fd9010dd8adc1de6976be871bc5be00717132.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:07:35</t>
   </si>
 </sst>
 </file>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,14 +333,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -421,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -449,6 +452,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="f772f979-6036-4952-a3bc-cc4dfb81dcf6.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="f772f979-6036-4952-a3bc-cc4dfb81dcf6.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -467,14 +471,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -558,14 +562,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -586,6 +590,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="f772f979-6036-4952-a3bc-cc4dfb81dcf6.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="f772f979-6036-4952-a3bc-cc4dfb81dcf6.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-10 09:24:13</t>
+    <t>2016-10-10 09:24:57</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.79fed6077362d441022f1408c5ba5070b73ca71c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 09:24:02</t>
+    <t>2016-10-10 09:24:47</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>File Name</t>
   </si>
@@ -118,13 +118,19 @@
     <t>2016-10-10 09:24:47</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-10-10 09:25:26</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/48cde75648e9a4cdadf07ed818a7ab23a861da49/e2e/fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/774c20811d9d59ac5bebe1a17cb9a25f48cdfe65/e2e/fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md.</t>
+  </si>
+  <si>
     <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.79fed6077362d441022f1408c5ba5070b73ca71c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:25:42</t>
   </si>
 </sst>
 </file>
@@ -336,14 +342,14 @@
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -421,11 +427,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -443,12 +449,13 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -473,14 +480,14 @@
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -553,19 +560,19 @@
         <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -580,12 +587,13 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-10-10 09:24:57</t>
@@ -264,8 +264,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -336,7 +336,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -474,7 +474,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>File Name</t>
   </si>
@@ -55,6 +55,18 @@
     <t>2016-10-10 09:24:57</t>
   </si>
   <si>
+    <t>a4490a95-e742-4852-8490-6174db646455.md</t>
+  </si>
+  <si>
+    <t>e2e\a4490a95-e742-4852-8490-6174db646455.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:27:06</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -127,10 +139,22 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/48cde75648e9a4cdadf07ed818a7ab23a861da49/e2e/fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/774c20811d9d59ac5bebe1a17cb9a25f48cdfe65/e2e/fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md.</t>
   </si>
   <si>
+    <t>a4490a95-e742-4852-8490-6174db646455.a67382c08b6a095cb991297b872e1c4f9e9c2baa.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:26:56</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.79fed6077362d441022f1408c5ba5070b73ca71c.de-de.xlf</t>
   </si>
   <si>
     <t>2016-10-10 09:25:42</t>
+  </si>
+  <si>
+    <t>a4490a95-e742-4852-8490-6174db646455.a67382c08b6a095cb991297b872e1c4f9e9c2baa.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -187,8 +211,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P2" headerRowCount="1">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -212,8 +236,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P2" headerRowCount="1">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -237,8 +261,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -254,7 +278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -264,8 +288,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -315,9 +339,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\a4490a95-e742-4852-8490-6174db646455.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -328,7 +376,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -336,7 +384,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -354,52 +402,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -413,49 +461,100 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>36</v>
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId2"/>
     <hyperlink ref="I2" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -466,7 +565,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -474,7 +573,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -492,52 +591,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -551,16 +650,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -569,31 +668,82 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId2"/>
     <hyperlink ref="I2" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -37,36 +37,36 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>a4490a95-e742-4852-8490-6174db646455.md</t>
+  </si>
+  <si>
+    <t>e2e\a4490a95-e742-4852-8490-6174db646455.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:27:06</t>
+  </si>
+  <si>
     <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md</t>
   </si>
   <si>
     <t>e2e\fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>In Translation</t>
   </si>
   <si>
     <t>2016-10-10 09:24:57</t>
   </si>
   <si>
-    <t>a4490a95-e742-4852-8490-6174db646455.md</t>
-  </si>
-  <si>
-    <t>e2e\a4490a95-e742-4852-8490-6174db646455.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:27:06</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -124,6 +124,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>a4490a95-e742-4852-8490-6174db646455.a67382c08b6a095cb991297b872e1c4f9e9c2baa.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:26:56</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:27:42</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.79fed6077362d441022f1408c5ba5070b73ca71c.zh-cn.xlf</t>
   </si>
   <si>
@@ -133,28 +145,19 @@
     <t>2016-10-10 09:25:26</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/48cde75648e9a4cdadf07ed818a7ab23a861da49/e2e/fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/774c20811d9d59ac5bebe1a17cb9a25f48cdfe65/e2e/fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md.</t>
   </si>
   <si>
-    <t>a4490a95-e742-4852-8490-6174db646455.a67382c08b6a095cb991297b872e1c4f9e9c2baa.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:26:56</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>a4490a95-e742-4852-8490-6174db646455.a67382c08b6a095cb991297b872e1c4f9e9c2baa.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:27:57</t>
   </si>
   <si>
     <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.79fed6077362d441022f1408c5ba5070b73ca71c.de-de.xlf</t>
   </si>
   <si>
     <t>2016-10-10 09:25:42</t>
-  </si>
-  <si>
-    <t>a4490a95-e742-4852-8490-6174db646455.a67382c08b6a095cb991297b872e1c4f9e9c2baa.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -288,8 +291,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -364,8 +367,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\a4490a95-e742-4852-8490-6174db646455.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\a4490a95-e742-4852-8490-6174db646455.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -384,7 +387,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -497,7 +500,7 @@
         <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,19 +523,19 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -547,14 +550,15 @@
         <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -573,7 +577,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -686,7 +690,7 @@
         <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -714,14 +718,14 @@
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -736,14 +740,15 @@
         <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>File Name</t>
   </si>
@@ -67,6 +67,18 @@
     <t>2016-10-10 09:24:57</t>
   </si>
   <si>
+    <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md</t>
+  </si>
+  <si>
+    <t>e2e\fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:28:52</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -148,6 +160,15 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/48cde75648e9a4cdadf07ed818a7ab23a861da49/e2e/fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/774c20811d9d59ac5bebe1a17cb9a25f48cdfe65/e2e/fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md.</t>
   </si>
   <si>
+    <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.1e9488531f109ac96f0c2db36c9a1a28b29c3380.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:28:43</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>a4490a95-e742-4852-8490-6174db646455.a67382c08b6a095cb991297b872e1c4f9e9c2baa.de-de.xlf</t>
   </si>
   <si>
@@ -158,6 +179,9 @@
   </si>
   <si>
     <t>2016-10-10 09:25:42</t>
+  </si>
+  <si>
+    <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.1e9488531f109ac96f0c2db36c9a1a28b29c3380.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -214,8 +238,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -239,8 +263,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -264,8 +288,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -281,7 +305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -365,10 +389,34 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\a4490a95-e742-4852-8490-6174db646455.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -379,7 +427,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,52 +453,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -464,40 +512,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -514,43 +562,93 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -559,6 +657,7 @@
     <hyperlink ref="I2" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId3"/>
     <hyperlink ref="A3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId4"/>
     <hyperlink ref="I3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -569,7 +668,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -595,52 +694,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -654,16 +753,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -672,22 +771,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -704,16 +803,16 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -722,25 +821,75 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="0" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -749,6 +898,7 @@
     <hyperlink ref="I2" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId3"/>
     <hyperlink ref="A3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId4"/>
     <hyperlink ref="I3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>File Name</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>e2e\fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
   </si>
   <si>
     <t>2016-10-10 09:28:52</t>
@@ -403,13 +400,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -453,52 +450,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -512,40 +509,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -562,43 +559,43 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -609,43 +606,43 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -694,52 +691,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -753,16 +750,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -771,22 +768,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -803,16 +800,16 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -821,25 +818,25 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -850,23 +847,23 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
@@ -874,19 +871,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>File Name</t>
   </si>
@@ -73,7 +73,10 @@
     <t>e2e\fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md</t>
   </si>
   <si>
-    <t>2016-10-10 09:28:52</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:30:12</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -160,7 +163,7 @@
     <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.1e9488531f109ac96f0c2db36c9a1a28b29c3380.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 09:28:43</t>
+    <t>2016-10-10 09:30:00</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -400,13 +403,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -450,52 +453,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -509,40 +512,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -559,43 +562,43 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -606,22 +609,22 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -630,19 +633,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -691,52 +694,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -750,16 +753,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -768,22 +771,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -800,16 +803,16 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -818,25 +821,25 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -847,22 +850,22 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -871,19 +874,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -55,6 +55,15 @@
     <t>2016-10-10 09:27:06</t>
   </si>
   <si>
+    <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md</t>
+  </si>
+  <si>
+    <t>e2e\fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:30:12</t>
+  </si>
+  <si>
     <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md</t>
   </si>
   <si>
@@ -67,18 +76,6 @@
     <t>2016-10-10 09:24:57</t>
   </si>
   <si>
-    <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md</t>
-  </si>
-  <si>
-    <t>e2e\fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:30:12</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -148,6 +145,15 @@
     <t>True</t>
   </si>
   <si>
+    <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.1e9488531f109ac96f0c2db36c9a1a28b29c3380.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:30:00</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:30:42</t>
+  </si>
+  <si>
     <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.79fed6077362d441022f1408c5ba5070b73ca71c.zh-cn.xlf</t>
   </si>
   <si>
@@ -160,28 +166,22 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/48cde75648e9a4cdadf07ed818a7ab23a861da49/e2e/fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/774c20811d9d59ac5bebe1a17cb9a25f48cdfe65/e2e/fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md.</t>
   </si>
   <si>
-    <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.1e9488531f109ac96f0c2db36c9a1a28b29c3380.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:30:00</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>a4490a95-e742-4852-8490-6174db646455.a67382c08b6a095cb991297b872e1c4f9e9c2baa.de-de.xlf</t>
   </si>
   <si>
     <t>2016-10-10 09:27:57</t>
   </si>
   <si>
+    <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.1e9488531f109ac96f0c2db36c9a1a28b29c3380.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:30:58</t>
+  </si>
+  <si>
     <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.79fed6077362d441022f1408c5ba5070b73ca71c.de-de.xlf</t>
   </si>
   <si>
     <t>2016-10-10 09:25:42</t>
-  </si>
-  <si>
-    <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.1e9488531f109ac96f0c2db36c9a1a28b29c3380.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -380,21 +380,21 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -403,20 +403,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\a4490a95-e742-4852-8490-6174db646455.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId4"/>
+    <hyperlink ref="B3" display="e2e\fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -453,52 +453,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -512,40 +512,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -559,105 +559,106 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId2"/>
     <hyperlink ref="I2" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId6"/>
+    <hyperlink ref="A3" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -694,52 +695,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -753,16 +754,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -771,22 +772,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -800,105 +801,106 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId2"/>
     <hyperlink ref="I2" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId6"/>
+    <hyperlink ref="A3" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -55,25 +55,25 @@
     <t>2016-10-10 09:27:06</t>
   </si>
   <si>
+    <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md</t>
+  </si>
+  <si>
+    <t>e2e\fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:24:57</t>
+  </si>
+  <si>
     <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md</t>
   </si>
   <si>
     <t>e2e\fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md</t>
   </si>
   <si>
-    <t>2016-10-10 09:30:12</t>
-  </si>
-  <si>
-    <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md</t>
-  </si>
-  <si>
-    <t>e2e\fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:24:57</t>
+    <t>2016-10-10 09:31:35</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -145,25 +145,28 @@
     <t>True</t>
   </si>
   <si>
+    <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.79fed6077362d441022f1408c5ba5070b73ca71c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:24:47</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:25:26</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/48cde75648e9a4cdadf07ed818a7ab23a861da49/e2e/fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/774c20811d9d59ac5bebe1a17cb9a25f48cdfe65/e2e/fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md.</t>
+  </si>
+  <si>
     <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.1e9488531f109ac96f0c2db36c9a1a28b29c3380.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 09:30:00</t>
+    <t>2016-10-10 09:31:25</t>
   </si>
   <si>
     <t>2016-10-10 09:30:42</t>
   </si>
   <si>
-    <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.79fed6077362d441022f1408c5ba5070b73ca71c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:24:47</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:25:26</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/48cde75648e9a4cdadf07ed818a7ab23a861da49/e2e/fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/774c20811d9d59ac5bebe1a17cb9a25f48cdfe65/e2e/fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md.</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/1d8cba60c43e8e115058a1f434bdbfe1c32d7adb/e2e/fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/a7b82fbf0d3fd14f90d0528c30adb1261c247451/e2e/fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md.</t>
   </si>
   <si>
     <t>a4490a95-e742-4852-8490-6174db646455.a67382c08b6a095cb991297b872e1c4f9e9c2baa.de-de.xlf</t>
@@ -172,16 +175,16 @@
     <t>2016-10-10 09:27:57</t>
   </si>
   <si>
+    <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.79fed6077362d441022f1408c5ba5070b73ca71c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:25:42</t>
+  </si>
+  <si>
     <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.1e9488531f109ac96f0c2db36c9a1a28b29c3380.de-de.xlf</t>
   </si>
   <si>
     <t>2016-10-10 09:30:58</t>
-  </si>
-  <si>
-    <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.79fed6077362d441022f1408c5ba5070b73ca71c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:25:42</t>
   </si>
 </sst>
 </file>
@@ -380,21 +383,21 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -403,10 +406,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -415,8 +418,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\a4490a95-e742-4852-8490-6174db646455.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId4"/>
+    <hyperlink ref="B3" display="e2e\fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -559,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>36</v>
@@ -598,18 +601,18 @@
         <v>38</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>36</v>
@@ -621,19 +624,19 @@
         <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -648,17 +651,17 @@
         <v>38</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId2"/>
     <hyperlink ref="I2" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -763,7 +766,7 @@
         <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -772,10 +775,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -801,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>36</v>
@@ -813,19 +816,19 @@
         <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -840,18 +843,18 @@
         <v>38</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>36</v>
@@ -863,19 +866,19 @@
         <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -890,17 +893,17 @@
         <v>38</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId2"/>
     <hyperlink ref="I2" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>File Name</t>
   </si>
@@ -55,6 +55,15 @@
     <t>2016-10-10 09:27:06</t>
   </si>
   <si>
+    <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md</t>
+  </si>
+  <si>
+    <t>e2e\fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:31:35</t>
+  </si>
+  <si>
     <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md</t>
   </si>
   <si>
@@ -67,15 +76,6 @@
     <t>2016-10-10 09:24:57</t>
   </si>
   <si>
-    <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md</t>
-  </si>
-  <si>
-    <t>e2e\fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:31:35</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -145,6 +145,15 @@
     <t>True</t>
   </si>
   <si>
+    <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.1e9488531f109ac96f0c2db36c9a1a28b29c3380.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:31:25</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:32:13</t>
+  </si>
+  <si>
     <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.79fed6077362d441022f1408c5ba5070b73ca71c.zh-cn.xlf</t>
   </si>
   <si>
@@ -157,34 +166,22 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/48cde75648e9a4cdadf07ed818a7ab23a861da49/e2e/fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/774c20811d9d59ac5bebe1a17cb9a25f48cdfe65/e2e/fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md.</t>
   </si>
   <si>
-    <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.1e9488531f109ac96f0c2db36c9a1a28b29c3380.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:31:25</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:30:42</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/1d8cba60c43e8e115058a1f434bdbfe1c32d7adb/e2e/fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/a7b82fbf0d3fd14f90d0528c30adb1261c247451/e2e/fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md.</t>
-  </si>
-  <si>
     <t>a4490a95-e742-4852-8490-6174db646455.a67382c08b6a095cb991297b872e1c4f9e9c2baa.de-de.xlf</t>
   </si>
   <si>
     <t>2016-10-10 09:27:57</t>
   </si>
   <si>
+    <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.1e9488531f109ac96f0c2db36c9a1a28b29c3380.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:32:29</t>
+  </si>
+  <si>
     <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.79fed6077362d441022f1408c5ba5070b73ca71c.de-de.xlf</t>
   </si>
   <si>
     <t>2016-10-10 09:25:42</t>
-  </si>
-  <si>
-    <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.1e9488531f109ac96f0c2db36c9a1a28b29c3380.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:30:58</t>
   </si>
 </sst>
 </file>
@@ -383,21 +380,21 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -406,10 +403,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -418,8 +415,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\a4490a95-e742-4852-8490-6174db646455.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId4"/>
+    <hyperlink ref="B3" display="e2e\fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -562,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>36</v>
@@ -601,18 +598,18 @@
         <v>38</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>36</v>
@@ -624,19 +621,19 @@
         <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -651,17 +648,17 @@
         <v>38</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId2"/>
     <hyperlink ref="I2" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -766,7 +763,7 @@
         <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -775,10 +772,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -804,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>36</v>
@@ -816,19 +813,19 @@
         <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -843,18 +840,18 @@
         <v>38</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>36</v>
@@ -866,19 +863,19 @@
         <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -893,17 +890,17 @@
         <v>38</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId2"/>
     <hyperlink ref="I2" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>file_full_deleted_multi_path_1.md</t>
-  </si>
-  <si>
-    <t>e2e\file_full_deleted_multi_path_1.md</t>
+    <t>file_no_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_multi_path_1.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -55,24 +55,6 @@
     <t>2016-10-10 09:34:01</t>
   </si>
   <si>
-    <t>file_full_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>e2e\file_full_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>file_full_deleted_single_path.md</t>
-  </si>
-  <si>
-    <t>e2e\file_full_deleted_single_path.md</t>
-  </si>
-  <si>
-    <t>file_no_deleted_multi_path_1.md</t>
-  </si>
-  <si>
-    <t>e2e\file_no_deleted_multi_path_1.md</t>
-  </si>
-  <si>
     <t>file_no_deleted_multi_path_2.md</t>
   </si>
   <si>
@@ -85,16 +67,19 @@
     <t>e2e\file_no_deleted_single_path.md</t>
   </si>
   <si>
+    <t>2016-10-10 09:34:55</t>
+  </si>
+  <si>
     <t>file_partial_deleted_multi_path_1.md</t>
   </si>
   <si>
     <t>e2e\file_partial_deleted_multi_path_1.md</t>
   </si>
   <si>
-    <t>file_partial_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>e2e\file_partial_deleted_multi_path_2.md</t>
+    <t>newfile.d04172e8-0aea-48a7-b720-07fd0090e10d.md</t>
+  </si>
+  <si>
+    <t>e2e\newfile.d04172e8-0aea-48a7-b720-07fd0090e10d.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -154,7 +139,7 @@
     <t>False</t>
   </si>
   <si>
-    <t>file_full_deleted_multi_path_1.48e6116bf01773078e82b70d69ae824d9d3335bf.zh-cn.xlf</t>
+    <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-10-10 09:33:49</t>
@@ -166,22 +151,16 @@
     <t>True</t>
   </si>
   <si>
-    <t>file_full_deleted_single_path.e86419d14c4ef175629cef2c2aa65b39701a3167.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-10-10 09:34:45</t>
+  </si>
+  <si>
     <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>file_full_deleted_multi_path_1.48e6116bf01773078e82b70d69ae824d9d3335bf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>file_full_deleted_single_path.e86419d14c4ef175629cef2c2aa65b39701a3167.de-de.xlf</t>
+    <t>newfile.d04172e8-0aea-48a7-b720-07fd0090e10d.47de7f04d352bfeff83bf9bb4120b67b553dc921.zh-cn.xlf</t>
   </si>
   <si>
     <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.de-de.xlf</t>
@@ -191,6 +170,9 @@
   </si>
   <si>
     <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>newfile.d04172e8-0aea-48a7-b720-07fd0090e10d.47de7f04d352bfeff83bf9bb4120b67b553dc921.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -247,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P9" headerRowCount="1">
-  <autoFilter ref="A1:P9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P6" headerRowCount="1">
+  <autoFilter ref="A1:P6"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -272,8 +254,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P9" headerRowCount="1">
-  <autoFilter ref="A1:P9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P6" headerRowCount="1">
+  <autoFilter ref="A1:P6"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -297,8 +279,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
-  <autoFilter ref="A1:G9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
+  <autoFilter ref="A1:G6"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -314,14 +296,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
-    <col min="2" max="2" width="39.0533142089844" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
     <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
@@ -418,15 +400,15 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -446,10 +428,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -464,88 +446,16 @@
         <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\file_full_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\file_full_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\file_full_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\file_no_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\file_no_deleted_multi_path_2.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\file_no_deleted_single_path.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\file_partial_deleted_multi_path_1.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\file_partial_deleted_multi_path_2.md" r:id="rId9"/>
+    <hyperlink ref="B2" display="e2e\file_no_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\file_no_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\file_no_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\file_partial_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\newfile.d04172e8-0aea-48a7-b720-07fd0090e10d.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -556,13 +466,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
     <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
@@ -582,52 +492,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -641,40 +551,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -691,40 +601,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -741,40 +651,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -782,7 +692,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -791,40 +701,40 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -832,7 +742,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -841,205 +751,52 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="L6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="file_full_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="file_full_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="file_full_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="file_no_deleted_multi_path_2.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="file_no_deleted_single_path.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="file_partial_deleted_multi_path_1.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="file_partial_deleted_multi_path_2.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="file_no_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="file_no_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="file_partial_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="newfile.d04172e8-0aea-48a7-b720-07fd0090e10d.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1050,13 +807,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
     <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
@@ -1076,52 +833,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -1135,16 +892,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1156,19 +913,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1185,16 +942,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1206,19 +963,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1235,40 +992,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1276,7 +1033,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1285,16 +1042,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -1306,19 +1063,19 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1326,7 +1083,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1335,205 +1092,52 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="L6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="file_full_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="file_full_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="file_full_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="file_no_deleted_multi_path_2.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="file_no_deleted_single_path.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="file_partial_deleted_multi_path_1.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="file_partial_deleted_multi_path_2.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="file_no_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="file_no_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="file_partial_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="newfile.d04172e8-0aea-48a7-b720-07fd0090e10d.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -49,33 +49,36 @@
     <t/>
   </si>
   <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:34:01</t>
+  </si>
+  <si>
+    <t>file_no_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>e2e\file_partial_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>file_no_deleted_single_path.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_single_path.md</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-10 09:34:01</t>
-  </si>
-  <si>
-    <t>file_no_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>e2e\file_no_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>file_no_deleted_single_path.md</t>
-  </si>
-  <si>
-    <t>e2e\file_no_deleted_single_path.md</t>
-  </si>
-  <si>
     <t>2016-10-10 09:34:55</t>
   </si>
   <si>
-    <t>file_partial_deleted_multi_path_1.md</t>
-  </si>
-  <si>
-    <t>e2e\file_partial_deleted_multi_path_1.md</t>
-  </si>
-  <si>
     <t>newfile.d04172e8-0aea-48a7-b720-07fd0090e10d.md</t>
   </si>
   <si>
@@ -145,31 +148,40 @@
     <t>2016-10-10 09:33:49</t>
   </si>
   <si>
+    <t>2016-10-10 09:35:32</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:34:45</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/9b7a3a663981b74e2a8f8d20d66f8bac3665bbc0/e2e/file_no_deleted_single_path.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4611ca4e4794adb9d380c5f7eb0bc31e28044aeb/e2e/file_no_deleted_single_path.md.</t>
+  </si>
+  <si>
+    <t>newfile.d04172e8-0aea-48a7-b720-07fd0090e10d.47de7f04d352bfeff83bf9bb4120b67b553dc921.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:34:45</t>
-  </si>
-  <si>
-    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>newfile.d04172e8-0aea-48a7-b720-07fd0090e10d.47de7f04d352bfeff83bf9bb4120b67b553dc921.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-10-10 09:35:48</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.de-de.xlf</t>
+  </si>
+  <si>
     <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.de-de.xlf</t>
   </si>
   <si>
     <t>newfile.d04172e8-0aea-48a7-b720-07fd0090e10d.47de7f04d352bfeff83bf9bb4120b67b553dc921.de-de.xlf</t>
@@ -306,8 +318,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -400,61 +412,61 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\file_no_deleted_multi_path_1.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\file_no_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\file_no_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\file_partial_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="B4" display="e2e\file_partial_deleted_multi_path_1.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\file_no_deleted_single_path.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\newfile.d04172e8-0aea-48a7-b720-07fd0090e10d.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
@@ -474,70 +486,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="34.977424621582" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -551,40 +563,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -601,40 +613,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -651,40 +663,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -692,79 +704,79 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
@@ -772,19 +784,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -793,10 +805,14 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="file_no_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="file_no_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="file_partial_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="newfile.d04172e8-0aea-48a7-b720-07fd0090e10d.md" r:id="rId6"/>
+    <hyperlink ref="I2" display="file_no_deleted_multi_path_1.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="file_partial_deleted_multi_path_1.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="file_partial_deleted_multi_path_1.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="file_no_deleted_single_path.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="file_no_deleted_single_path.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="newfile.d04172e8-0aea-48a7-b720-07fd0090e10d.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -815,70 +831,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="34.977424621582" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -892,40 +908,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -942,40 +958,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -992,40 +1008,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1033,79 +1049,79 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
@@ -1113,19 +1129,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1134,10 +1150,14 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="file_no_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="file_no_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="file_partial_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="newfile.d04172e8-0aea-48a7-b720-07fd0090e10d.md" r:id="rId6"/>
+    <hyperlink ref="I2" display="file_no_deleted_multi_path_1.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="file_partial_deleted_multi_path_1.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="file_partial_deleted_multi_path_1.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="file_no_deleted_single_path.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="file_no_deleted_single_path.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="newfile.d04172e8-0aea-48a7-b720-07fd0090e10d.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-10-10 09:36:50</t>
@@ -124,7 +124,7 @@
     <t>2016-10-10 09:36:39</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-10-10 09:37:27</t>
   </si>
   <si>
     <t>True</t>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:37:43</t>
   </si>
   <si>
     <t>523eb56d-c432-4139-b454-edeb6f0553e4.4d2b0affa740e69a3be9f3db847d366d8bbe0601.de-de.xlf</t>
@@ -270,8 +273,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -366,14 +369,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -457,11 +460,11 @@
       <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>36</v>
@@ -507,11 +510,11 @@
       <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>36</v>
@@ -535,7 +538,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -554,14 +559,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -645,14 +650,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -690,19 +695,19 @@
         <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -723,7 +728,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -37,28 +37,34 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>523eb56d-c432-4139-b454-edeb6f0553e4.md</t>
+  </si>
+  <si>
+    <t>e2e\523eb56d-c432-4139-b454-edeb6f0553e4.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:36:50</t>
+  </si>
+  <si>
     <t>4a066e60-9c9f-4238-a567-d31be1f8a179.md</t>
   </si>
   <si>
     <t>e2e\4a066e60-9c9f-4238-a567-d31be1f8a179.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:36:50</t>
-  </si>
-  <si>
-    <t>523eb56d-c432-4139-b454-edeb6f0553e4.md</t>
-  </si>
-  <si>
-    <t>e2e\523eb56d-c432-4139-b454-edeb6f0553e4.md</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:38:24</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,28 +124,34 @@
     <t>False</t>
   </si>
   <si>
+    <t>523eb56d-c432-4139-b454-edeb6f0553e4.4d2b0affa740e69a3be9f3db847d366d8bbe0601.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:36:39</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:37:27</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 09:36:39</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:37:27</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>523eb56d-c432-4139-b454-edeb6f0553e4.4d2b0affa740e69a3be9f3db847d366d8bbe0601.zh-cn.xlf</t>
+    <t>2016-10-10 09:38:14</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/d8ceea8c8a685b63bb59ad6754812cf729d318d0/e2e/4a066e60-9c9f-4238-a567-d31be1f8a179.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/b2556fe6a2bfb431e14254fa3546429d2a1dba63/e2e/4a066e60-9c9f-4238-a567-d31be1f8a179.md.</t>
+  </si>
+  <si>
+    <t>523eb56d-c432-4139-b454-edeb6f0553e4.4d2b0affa740e69a3be9f3db847d366d8bbe0601.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:37:43</t>
   </si>
   <si>
     <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:37:43</t>
-  </si>
-  <si>
-    <t>523eb56d-c432-4139-b454-edeb6f0553e4.4d2b0affa740e69a3be9f3db847d366d8bbe0601.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -338,19 +350,19 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -382,57 +394,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -446,40 +458,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -493,54 +505,54 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -572,57 +584,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -636,16 +648,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -654,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -683,54 +695,54 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -37,36 +37,33 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>4a066e60-9c9f-4238-a567-d31be1f8a179.md</t>
+  </si>
+  <si>
+    <t>e2e\4a066e60-9c9f-4238-a567-d31be1f8a179.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:38:24</t>
+  </si>
+  <si>
     <t>523eb56d-c432-4139-b454-edeb6f0553e4.md</t>
   </si>
   <si>
     <t>e2e\523eb56d-c432-4139-b454-edeb6f0553e4.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-10-10 09:36:50</t>
   </si>
   <si>
-    <t>4a066e60-9c9f-4238-a567-d31be1f8a179.md</t>
-  </si>
-  <si>
-    <t>e2e\4a066e60-9c9f-4238-a567-d31be1f8a179.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:38:24</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -124,6 +121,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:38:14</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:38:58</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>523eb56d-c432-4139-b454-edeb6f0553e4.4d2b0affa740e69a3be9f3db847d366d8bbe0601.zh-cn.xlf</t>
   </si>
   <si>
@@ -133,25 +142,16 @@
     <t>2016-10-10 09:37:27</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:38:14</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/d8ceea8c8a685b63bb59ad6754812cf729d318d0/e2e/4a066e60-9c9f-4238-a567-d31be1f8a179.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/b2556fe6a2bfb431e14254fa3546429d2a1dba63/e2e/4a066e60-9c9f-4238-a567-d31be1f8a179.md.</t>
+    <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:39:14</t>
   </si>
   <si>
     <t>523eb56d-c432-4139-b454-edeb6f0553e4.4d2b0affa740e69a3be9f3db847d366d8bbe0601.de-de.xlf</t>
   </si>
   <si>
     <t>2016-10-10 09:37:43</t>
-  </si>
-  <si>
-    <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -350,19 +350,19 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -394,57 +394,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -458,40 +458,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -505,54 +505,54 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="G3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -584,57 +584,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -648,16 +648,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -666,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -695,54 +695,54 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>File Name</t>
   </si>
@@ -49,19 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:38:24</t>
-  </si>
-  <si>
-    <t>523eb56d-c432-4139-b454-edeb6f0553e4.md</t>
-  </si>
-  <si>
-    <t>e2e\523eb56d-c432-4139-b454-edeb6f0553e4.md</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:36:50</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:39:51</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -124,7 +115,7 @@
     <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 09:38:14</t>
+    <t>2016-10-10 09:39:40</t>
   </si>
   <si>
     <t>2016-10-10 09:38:58</t>
@@ -133,25 +124,13 @@
     <t>True</t>
   </si>
   <si>
-    <t>523eb56d-c432-4139-b454-edeb6f0553e4.4d2b0affa740e69a3be9f3db847d366d8bbe0601.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:36:39</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:37:27</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/b2556fe6a2bfb431e14254fa3546429d2a1dba63/e2e/4a066e60-9c9f-4238-a567-d31be1f8a179.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/9108888bc8dd83f0e9b793e8b2ab49342be8b2af/e2e/4a066e60-9c9f-4238-a567-d31be1f8a179.md.</t>
   </si>
   <si>
     <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.de-de.xlf</t>
   </si>
   <si>
     <t>2016-10-10 09:39:14</t>
-  </si>
-  <si>
-    <t>523eb56d-c432-4139-b454-edeb6f0553e4.4d2b0affa740e69a3be9f3db847d366d8bbe0601.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:37:43</t>
   </si>
 </sst>
 </file>
@@ -208,8 +187,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P2" headerRowCount="1">
+  <autoFilter ref="A1:P2"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -233,8 +212,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P2" headerRowCount="1">
+  <autoFilter ref="A1:P2"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -258,8 +237,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -275,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -285,8 +264,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -336,33 +315,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -373,7 +328,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -381,7 +336,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -394,57 +349,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -458,101 +413,49 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId2"/>
     <hyperlink ref="I2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -563,7 +466,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -571,7 +474,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -584,57 +487,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -648,16 +551,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -666,83 +569,31 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId2"/>
     <hyperlink ref="I2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-10-10 09:39:51</t>
@@ -118,19 +118,16 @@
     <t>2016-10-10 09:39:40</t>
   </si>
   <si>
-    <t>2016-10-10 09:38:58</t>
+    <t>2016-10-10 09:40:25</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/b2556fe6a2bfb431e14254fa3546429d2a1dba63/e2e/4a066e60-9c9f-4238-a567-d31be1f8a179.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/9108888bc8dd83f0e9b793e8b2ab49342be8b2af/e2e/4a066e60-9c9f-4238-a567-d31be1f8a179.md.</t>
-  </si>
-  <si>
     <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 09:39:14</t>
+    <t>2016-10-10 09:40:41</t>
   </si>
 </sst>
 </file>
@@ -264,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -336,7 +333,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -349,7 +346,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -449,7 +446,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -474,7 +471,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -487,7 +484,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -560,7 +557,7 @@
         <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -569,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -587,7 +584,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -37,42 +37,39 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>2b6ec526-c376-4a91-afa3-ee782c7d66ee.md</t>
+  </si>
+  <si>
+    <t>e2e\2b6ec526-c376-4a91-afa3-ee782c7d66ee.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:41:59</t>
+  </si>
+  <si>
+    <t>363d31ec-2660-4391-912c-f7492954c869.md</t>
+  </si>
+  <si>
+    <t>e2e\363d31ec-2660-4391-912c-f7492954c869.md</t>
+  </si>
+  <si>
     <t>4a066e60-9c9f-4238-a567-d31be1f8a179.md</t>
   </si>
   <si>
     <t>e2e\4a066e60-9c9f-4238-a567-d31be1f8a179.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-10-10 09:39:51</t>
   </si>
   <si>
-    <t>2b6ec526-c376-4a91-afa3-ee782c7d66ee.md</t>
-  </si>
-  <si>
-    <t>e2e\2b6ec526-c376-4a91-afa3-ee782c7d66ee.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:41:59</t>
-  </si>
-  <si>
-    <t>363d31ec-2660-4391-912c-f7492954c869.md</t>
-  </si>
-  <si>
-    <t>e2e\363d31ec-2660-4391-912c-f7492954c869.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,6 +127,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>2b6ec526-c376-4a91-afa3-ee782c7d66ee.b0feb0967efeeb21a8d7ed9ebb0eaac31f75219c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:41:49</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:42:40</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.zh-cn.xlf</t>
   </si>
   <si>
@@ -139,25 +148,16 @@
     <t>2016-10-10 09:40:25</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>2b6ec526-c376-4a91-afa3-ee782c7d66ee.b0feb0967efeeb21a8d7ed9ebb0eaac31f75219c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:41:49</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2b6ec526-c376-4a91-afa3-ee782c7d66ee.b0feb0967efeeb21a8d7ed9ebb0eaac31f75219c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:42:56</t>
   </si>
   <si>
     <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.de-de.xlf</t>
   </si>
   <si>
     <t>2016-10-10 09:40:41</t>
-  </si>
-  <si>
-    <t>2b6ec526-c376-4a91-afa3-ee782c7d66ee.b0feb0967efeeb21a8d7ed9ebb0eaac31f75219c.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -356,21 +356,21 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -379,20 +379,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\363d31ec-2660-4391-912c-f7492954c869.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\363d31ec-2660-4391-912c-f7492954c869.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -429,52 +429,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -488,40 +488,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -535,43 +535,43 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -579,49 +579,49 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -629,10 +629,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="363d31ec-2660-4391-912c-f7492954c869.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="363d31ec-2660-4391-912c-f7492954c869.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -669,52 +671,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -728,16 +730,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -746,22 +748,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -775,43 +777,43 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -819,49 +821,49 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="J4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -869,10 +871,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="363d31ec-2660-4391-912c-f7492954c869.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="363d31ec-2660-4391-912c-f7492954c869.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -79,7 +79,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-10 09:43:41</t>
+    <t>2016-10-10 09:44:18</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -163,7 +163,7 @@
     <t>7ed2a854-01c6-4bd3-8381-0ee20e055f16.783aed5586b146015ca66ba5bfb8c06255923b52.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 09:43:30</t>
+    <t>2016-10-10 09:44:08</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>File Name</t>
   </si>
@@ -166,7 +166,10 @@
     <t>2016-10-10 09:44:08</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-10-10 09:44:50</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2e61ac643cdf98befb9655a1ba65ab264ac4eb22/e2e/7ed2a854-01c6-4bd3-8381-0ee20e055f16.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/cd053cd7d2bd96be91366e4b2bd5775b6a824fac/e2e/7ed2a854-01c6-4bd3-8381-0ee20e055f16.md.</t>
   </si>
   <si>
     <t>2b6ec526-c376-4a91-afa3-ee782c7d66ee.b0feb0967efeeb21a8d7ed9ebb0eaac31f75219c.de-de.xlf</t>
@@ -182,6 +185,9 @@
   </si>
   <si>
     <t>7ed2a854-01c6-4bd3-8381-0ee20e055f16.783aed5586b146015ca66ba5bfb8c06255923b52.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:45:06</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -700,11 +706,11 @@
       <c r="H5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>50</v>
@@ -722,7 +728,7 @@
         <v>40</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -734,6 +740,7 @@
     <hyperlink ref="A4" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId6"/>
     <hyperlink ref="I4" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId7"/>
     <hyperlink ref="A5" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -765,7 +772,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -838,7 +845,7 @@
         <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -847,10 +854,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -888,7 +895,7 @@
         <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -897,10 +904,10 @@
         <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -938,7 +945,7 @@
         <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
@@ -947,10 +954,10 @@
         <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -988,19 +995,19 @@
         <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
@@ -1015,7 +1022,7 @@
         <v>40</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1027,6 +1034,7 @@
     <hyperlink ref="A4" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId6"/>
     <hyperlink ref="I4" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId7"/>
     <hyperlink ref="A5" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>File Name</t>
   </si>
@@ -76,9 +76,6 @@
     <t>e2e\7ed2a854-01c6-4bd3-8381-0ee20e055f16.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>2016-10-10 09:44:18</t>
   </si>
   <si>
@@ -166,10 +163,7 @@
     <t>2016-10-10 09:44:08</t>
   </si>
   <si>
-    <t>2016-10-10 09:44:50</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2e61ac643cdf98befb9655a1ba65ab264ac4eb22/e2e/7ed2a854-01c6-4bd3-8381-0ee20e055f16.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/cd053cd7d2bd96be91366e4b2bd5775b6a824fac/e2e/7ed2a854-01c6-4bd3-8381-0ee20e055f16.md.</t>
+    <t>2016-10-10 09:45:44</t>
   </si>
   <si>
     <t>2b6ec526-c376-4a91-afa3-ee782c7d66ee.b0feb0967efeeb21a8d7ed9ebb0eaac31f75219c.de-de.xlf</t>
@@ -187,7 +181,7 @@
     <t>7ed2a854-01c6-4bd3-8381-0ee20e055f16.783aed5586b146015ca66ba5bfb8c06255923b52.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 09:45:06</t>
+    <t>2016-10-10 09:46:00</t>
   </si>
 </sst>
 </file>
@@ -432,13 +426,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -478,57 +472,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -542,40 +536,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -592,40 +586,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -642,40 +636,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -689,46 +683,46 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -772,57 +766,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -836,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -854,22 +848,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -886,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -904,22 +898,22 @@
         <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -936,16 +930,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
@@ -954,22 +948,22 @@
         <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -983,46 +977,46 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -88,7 +88,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-10 09:46:50</t>
+    <t>2016-10-10 09:47:27</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -181,7 +181,7 @@
     <t>e090e645-09b3-4542-97c9-c769b01b38fb.22712eecc61c5fc8df56fcf01097a08c1630d156.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 09:46:40</t>
+    <t>2016-10-10 09:47:17</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -85,9 +85,6 @@
     <t>e2e\e090e645-09b3-4542-97c9-c769b01b38fb.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>2016-10-10 09:47:27</t>
   </si>
   <si>
@@ -184,7 +181,7 @@
     <t>2016-10-10 09:47:17</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-10-10 09:47:59</t>
   </si>
   <si>
     <t>2b6ec526-c376-4a91-afa3-ee782c7d66ee.b0feb0967efeeb21a8d7ed9ebb0eaac31f75219c.de-de.xlf</t>
@@ -206,6 +203,9 @@
   </si>
   <si>
     <t>e090e645-09b3-4542-97c9-c769b01b38fb.22712eecc61c5fc8df56fcf01097a08c1630d156.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:48:15</t>
   </si>
 </sst>
 </file>
@@ -473,13 +473,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -525,52 +525,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -584,40 +584,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -634,40 +634,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -684,40 +684,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -734,40 +734,40 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -781,43 +781,43 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -834,6 +834,7 @@
     <hyperlink ref="A5" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId8"/>
     <hyperlink ref="I5" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId9"/>
     <hyperlink ref="A6" display="e090e645-09b3-4542-97c9-c769b01b38fb.md" r:id="rId10"/>
+    <hyperlink ref="I6" display="e090e645-09b3-4542-97c9-c769b01b38fb.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -870,52 +871,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -929,16 +930,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -947,22 +948,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -979,16 +980,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -997,22 +998,22 @@
         <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1029,16 +1030,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
@@ -1047,22 +1048,22 @@
         <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1079,16 +1080,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>20</v>
@@ -1097,22 +1098,22 @@
         <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1126,43 +1127,43 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1179,6 +1180,7 @@
     <hyperlink ref="A5" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId8"/>
     <hyperlink ref="I5" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId9"/>
     <hyperlink ref="A6" display="e090e645-09b3-4542-97c9-c769b01b38fb.md" r:id="rId10"/>
+    <hyperlink ref="I6" display="e090e645-09b3-4542-97c9-c769b01b38fb.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>File Name</t>
   </si>
@@ -85,9 +85,6 @@
     <t>e2e\e090e645-09b3-4542-97c9-c769b01b38fb.md</t>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
     <t>2016-10-10 09:50:15</t>
   </si>
   <si>
@@ -97,7 +94,7 @@
     <t>e2e\021f721d-b8b0-4eca-a805-19cca9e7fd42.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handback transform failed</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -193,13 +190,16 @@
     <t>2016-10-10 09:50:04</t>
   </si>
   <si>
+    <t>2016-10-10 09:50:43</t>
+  </si>
+  <si>
+    <t>021f721d-b8b0-4eca-a805-19cca9e7fd42.98b460156c1da5aa1d53d41382f3c10633f1094d.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Targeting source file commit 93c3a8757197b293d3d95fc3b5b3d70c6cc0a0bd is lower than latest handed back source file commit e51cfe361dd49d75c805a2b250adba4c480d6420</t>
-  </si>
-  <si>
-    <t>021f721d-b8b0-4eca-a805-19cca9e7fd42.98b460156c1da5aa1d53d41382f3c10633f1094d.zh-cn.xlf</t>
+    <t>Handback file name: rtktijtb.dsa is different with handoff file name: 021f721d-b8b0-4eca-a805-19cca9e7fd42.98b460156c1da5aa1d53d41382f3c10633f1094d.zh-cn.</t>
   </si>
   <si>
     <t>2b6ec526-c376-4a91-afa3-ee782c7d66ee.b0feb0967efeeb21a8d7ed9ebb0eaac31f75219c.de-de.xlf</t>
@@ -223,7 +223,13 @@
     <t>e090e645-09b3-4542-97c9-c769b01b38fb.22712eecc61c5fc8df56fcf01097a08c1630d156.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-10-10 09:50:58</t>
+  </si>
+  <si>
     <t>021f721d-b8b0-4eca-a805-19cca9e7fd42.98b460156c1da5aa1d53d41382f3c10633f1094d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>Handback file name: rtktijtb.dsa is different with handoff file name: 021f721d-b8b0-4eca-a805-19cca9e7fd42.98b460156c1da5aa1d53d41382f3c10633f1094d.de-de.</t>
   </si>
 </sst>
 </file>
@@ -491,36 +497,36 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -567,52 +573,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -626,40 +632,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -676,40 +682,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -726,40 +732,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -776,40 +782,40 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -823,96 +829,96 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +932,8 @@
     <hyperlink ref="A5" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId8"/>
     <hyperlink ref="I5" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId9"/>
     <hyperlink ref="A6" display="e090e645-09b3-4542-97c9-c769b01b38fb.md" r:id="rId10"/>
-    <hyperlink ref="A7" display="021f721d-b8b0-4eca-a805-19cca9e7fd42.md" r:id="rId11"/>
+    <hyperlink ref="I6" display="e090e645-09b3-4542-97c9-c769b01b38fb.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="021f721d-b8b0-4eca-a805-19cca9e7fd42.md" r:id="rId12"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -963,52 +970,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -1022,13 +1029,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>62</v>
@@ -1049,13 +1056,13 @@
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1072,13 +1079,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>62</v>
@@ -1099,13 +1106,13 @@
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1122,13 +1129,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>64</v>
@@ -1149,13 +1156,13 @@
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1172,13 +1179,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>66</v>
@@ -1199,13 +1206,13 @@
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1219,72 +1226,72 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1293,22 +1300,22 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1322,7 +1329,8 @@
     <hyperlink ref="A5" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId8"/>
     <hyperlink ref="I5" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId9"/>
     <hyperlink ref="A6" display="e090e645-09b3-4542-97c9-c769b01b38fb.md" r:id="rId10"/>
-    <hyperlink ref="A7" display="021f721d-b8b0-4eca-a805-19cca9e7fd42.md" r:id="rId11"/>
+    <hyperlink ref="I6" display="e090e645-09b3-4542-97c9-c769b01b38fb.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="021f721d-b8b0-4eca-a805-19cca9e7fd42.md" r:id="rId12"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-10-10 09:52:49</t>
@@ -124,7 +124,7 @@
     <t>2016-10-10 09:52:38</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-10-10 09:53:23</t>
   </si>
   <si>
     <t>True</t>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>2a9b8297-828f-4742-af6d-b4536e7a2e19.c2d0cdac9fd925ea5f4097abf2812dede1df22ea.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:53:39</t>
   </si>
   <si>
     <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.de-de.xlf</t>
@@ -270,8 +273,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -366,14 +369,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -457,11 +460,11 @@
       <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>36</v>
@@ -507,11 +510,11 @@
       <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>36</v>
@@ -535,7 +538,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -554,14 +559,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -645,14 +650,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -690,19 +695,19 @@
         <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -723,7 +728,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>File Name</t>
   </si>
@@ -37,28 +37,31 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>61aa49de-59cc-4317-a7ed-0b964375a556.md</t>
+  </si>
+  <si>
+    <t>e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:54:13</t>
+  </si>
+  <si>
     <t>2a9b8297-828f-4742-af6d-b4536e7a2e19.md</t>
   </si>
   <si>
     <t>e2e\2a9b8297-828f-4742-af6d-b4536e7a2e19.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:52:49</t>
-  </si>
-  <si>
-    <t>61aa49de-59cc-4317-a7ed-0b964375a556.md</t>
-  </si>
-  <si>
-    <t>e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,28 +121,34 @@
     <t>False</t>
   </si>
   <si>
+    <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:54:02</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:53:23</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4f473dc1a491f1c9d83a9cb002cfa6d6d214f0df/e2e/61aa49de-59cc-4317-a7ed-0b964375a556.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/47ea9b8d4b19d05ddf486ae49d258b97d3076389/e2e/61aa49de-59cc-4317-a7ed-0b964375a556.md.</t>
+  </si>
+  <si>
     <t>2a9b8297-828f-4742-af6d-b4536e7a2e19.c2d0cdac9fd925ea5f4097abf2812dede1df22ea.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 09:52:38</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:53:23</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.zh-cn.xlf</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4f473dc1a491f1c9d83a9cb002cfa6d6d214f0df/e2e/2a9b8297-828f-4742-af6d-b4536e7a2e19.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/47ea9b8d4b19d05ddf486ae49d258b97d3076389/e2e/2a9b8297-828f-4742-af6d-b4536e7a2e19.md.</t>
+  </si>
+  <si>
+    <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:53:39</t>
   </si>
   <si>
     <t>2a9b8297-828f-4742-af6d-b4536e7a2e19.c2d0cdac9fd925ea5f4097abf2812dede1df22ea.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:53:39</t>
-  </si>
-  <si>
-    <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -273,8 +282,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -338,10 +347,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -349,8 +358,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -369,7 +378,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -382,57 +391,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -446,43 +455,43 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -493,54 +502,54 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -559,7 +568,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -572,57 +581,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -636,16 +645,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -654,25 +663,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -683,19 +692,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -704,33 +713,33 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>File Name</t>
   </si>
@@ -127,28 +127,34 @@
     <t>2016-10-10 09:54:02</t>
   </si>
   <si>
+    <t>2016-10-10 09:54:47</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4f473dc1a491f1c9d83a9cb002cfa6d6d214f0df/e2e/61aa49de-59cc-4317-a7ed-0b964375a556.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/47ea9b8d4b19d05ddf486ae49d258b97d3076389/e2e/61aa49de-59cc-4317-a7ed-0b964375a556.md.</t>
+  </si>
+  <si>
+    <t>2a9b8297-828f-4742-af6d-b4536e7a2e19.c2d0cdac9fd925ea5f4097abf2812dede1df22ea.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-10-10 09:53:23</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4f473dc1a491f1c9d83a9cb002cfa6d6d214f0df/e2e/61aa49de-59cc-4317-a7ed-0b964375a556.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/47ea9b8d4b19d05ddf486ae49d258b97d3076389/e2e/61aa49de-59cc-4317-a7ed-0b964375a556.md.</t>
-  </si>
-  <si>
-    <t>2a9b8297-828f-4742-af6d-b4536e7a2e19.c2d0cdac9fd925ea5f4097abf2812dede1df22ea.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4f473dc1a491f1c9d83a9cb002cfa6d6d214f0df/e2e/2a9b8297-828f-4742-af6d-b4536e7a2e19.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/47ea9b8d4b19d05ddf486ae49d258b97d3076389/e2e/2a9b8297-828f-4742-af6d-b4536e7a2e19.md.</t>
   </si>
   <si>
     <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-10-10 09:55:02</t>
+  </si>
+  <si>
+    <t>2a9b8297-828f-4742-af6d-b4536e7a2e19.c2d0cdac9fd925ea5f4097abf2812dede1df22ea.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-10-10 09:53:39</t>
-  </si>
-  <si>
-    <t>2a9b8297-828f-4742-af6d-b4536e7a2e19.c2d0cdac9fd925ea5f4097abf2812dede1df22ea.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -526,7 +532,7 @@
         <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -541,7 +547,7 @@
         <v>34</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +660,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -663,10 +669,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -704,7 +710,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -713,10 +719,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -731,7 +737,7 @@
         <v>34</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>File Name</t>
   </si>
@@ -64,6 +64,15 @@
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.md</t>
+  </si>
+  <si>
+    <t>e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:55:37</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -145,6 +154,15 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4f473dc1a491f1c9d83a9cb002cfa6d6d214f0df/e2e/2a9b8297-828f-4742-af6d-b4536e7a2e19.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/47ea9b8d4b19d05ddf486ae49d258b97d3076389/e2e/2a9b8297-828f-4742-af6d-b4536e7a2e19.md.</t>
   </si>
   <si>
+    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.d4b3e6dfd175c1572aedb888e24cda4ebb3b789d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:55:26</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.de-de.xlf</t>
   </si>
   <si>
@@ -155,6 +173,9 @@
   </si>
   <si>
     <t>2016-10-10 09:53:39</t>
+  </si>
+  <si>
+    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.d4b3e6dfd175c1572aedb888e24cda4ebb3b789d.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -211,8 +232,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -236,8 +257,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -261,8 +282,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -278,7 +299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -362,10 +383,34 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -376,7 +421,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,52 +447,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -461,43 +506,43 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -511,43 +556,93 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -556,6 +651,7 @@
     <hyperlink ref="I2" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId3"/>
     <hyperlink ref="A3" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId4"/>
     <hyperlink ref="I3" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -566,7 +662,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -592,52 +688,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -651,16 +747,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -669,25 +765,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -701,16 +797,16 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -719,25 +815,75 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>42</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -746,6 +892,7 @@
     <hyperlink ref="I2" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId3"/>
     <hyperlink ref="A3" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId4"/>
     <hyperlink ref="I3" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>File Name</t>
   </si>
@@ -37,18 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.md</t>
+  </si>
+  <si>
+    <t>e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:55:37</t>
+  </si>
+  <si>
     <t>61aa49de-59cc-4317-a7ed-0b964375a556.md</t>
   </si>
   <si>
     <t>e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>In Translation</t>
   </si>
   <si>
@@ -64,15 +76,6 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.md</t>
-  </si>
-  <si>
-    <t>e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:55:37</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,6 +133,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.d4b3e6dfd175c1572aedb888e24cda4ebb3b789d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:55:26</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:56:10</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.zh-cn.xlf</t>
   </si>
   <si>
@@ -139,9 +154,6 @@
     <t>2016-10-10 09:54:47</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4f473dc1a491f1c9d83a9cb002cfa6d6d214f0df/e2e/61aa49de-59cc-4317-a7ed-0b964375a556.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/47ea9b8d4b19d05ddf486ae49d258b97d3076389/e2e/61aa49de-59cc-4317-a7ed-0b964375a556.md.</t>
   </si>
   <si>
@@ -154,13 +166,10 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4f473dc1a491f1c9d83a9cb002cfa6d6d214f0df/e2e/2a9b8297-828f-4742-af6d-b4536e7a2e19.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/47ea9b8d4b19d05ddf486ae49d258b97d3076389/e2e/2a9b8297-828f-4742-af6d-b4536e7a2e19.md.</t>
   </si>
   <si>
-    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.d4b3e6dfd175c1572aedb888e24cda4ebb3b789d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:55:26</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.d4b3e6dfd175c1572aedb888e24cda4ebb3b789d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:56:26</t>
   </si>
   <si>
     <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.de-de.xlf</t>
@@ -173,9 +182,6 @@
   </si>
   <si>
     <t>2016-10-10 09:53:39</t>
-  </si>
-  <si>
-    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.d4b3e6dfd175c1572aedb888e24cda4ebb3b789d.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -309,8 +315,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -380,15 +386,15 @@
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -397,20 +403,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -429,7 +435,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -447,52 +453,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -506,43 +512,43 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -556,19 +562,19 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
@@ -577,54 +583,54 @@
         <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>48</v>
@@ -633,25 +639,26 @@
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -670,7 +677,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -688,52 +695,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -747,16 +754,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -765,25 +772,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -797,102 +804,103 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.md</t>
-  </si>
-  <si>
-    <t>e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md</t>
+    <t>35060037-961d-4aaf-8439-26da88e541a2.md</t>
+  </si>
+  <si>
+    <t>e2e\35060037-961d-4aaf-8439-26da88e541a2.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,33 +49,48 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:55:37</t>
-  </si>
-  <si>
-    <t>61aa49de-59cc-4317-a7ed-0b964375a556.md</t>
-  </si>
-  <si>
-    <t>e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:54:13</t>
-  </si>
-  <si>
-    <t>2a9b8297-828f-4742-af6d-b4536e7a2e19.md</t>
-  </si>
-  <si>
-    <t>e2e\2a9b8297-828f-4742-af6d-b4536e7a2e19.md</t>
-  </si>
-  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>2016-10-10 09:57:22</t>
+  </si>
+  <si>
+    <t>385abfaf-42b1-4d73-a91a-1409782e68e5.md</t>
+  </si>
+  <si>
+    <t>e2e\385abfaf-42b1-4d73-a91a-1409782e68e5.md</t>
+  </si>
+  <si>
+    <t>44a0b75c-f3bd-4539-80a5-9efc5689a44e.md</t>
+  </si>
+  <si>
+    <t>e2e\44a0b75c-f3bd-4539-80a5-9efc5689a44e.md</t>
+  </si>
+  <si>
+    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md</t>
+  </si>
+  <si>
+    <t>e2e\58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md</t>
+  </si>
+  <si>
+    <t>85182d13-9b57-4405-92c1-fdf80e0f63e5.md</t>
+  </si>
+  <si>
+    <t>e2e\85182d13-9b57-4405-92c1-fdf80e0f63e5.md</t>
+  </si>
+  <si>
+    <t>8e2431e8-421e-43ec-8103-84c41ca0d7e4.md</t>
+  </si>
+  <si>
+    <t>e2e\8e2431e8-421e-43ec-8103-84c41ca0d7e4.md</t>
+  </si>
+  <si>
+    <t>c81d2227-4128-4bbe-bae6-e98edd18aa87.md</t>
+  </si>
+  <si>
+    <t>e2e\c81d2227-4128-4bbe-bae6-e98edd18aa87.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -133,55 +148,55 @@
     <t>False</t>
   </si>
   <si>
-    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.d4b3e6dfd175c1572aedb888e24cda4ebb3b789d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:55:26</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:56:10</t>
+    <t>35060037-961d-4aaf-8439-26da88e541a2.afe1c8775a636c37a7a305f12446b3c849d1237f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:57:11</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:54:02</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:54:47</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4f473dc1a491f1c9d83a9cb002cfa6d6d214f0df/e2e/61aa49de-59cc-4317-a7ed-0b964375a556.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/47ea9b8d4b19d05ddf486ae49d258b97d3076389/e2e/61aa49de-59cc-4317-a7ed-0b964375a556.md.</t>
-  </si>
-  <si>
-    <t>2a9b8297-828f-4742-af6d-b4536e7a2e19.c2d0cdac9fd925ea5f4097abf2812dede1df22ea.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:53:23</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4f473dc1a491f1c9d83a9cb002cfa6d6d214f0df/e2e/2a9b8297-828f-4742-af6d-b4536e7a2e19.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/47ea9b8d4b19d05ddf486ae49d258b97d3076389/e2e/2a9b8297-828f-4742-af6d-b4536e7a2e19.md.</t>
-  </si>
-  <si>
-    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.d4b3e6dfd175c1572aedb888e24cda4ebb3b789d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:56:26</t>
-  </si>
-  <si>
-    <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:55:02</t>
-  </si>
-  <si>
-    <t>2a9b8297-828f-4742-af6d-b4536e7a2e19.c2d0cdac9fd925ea5f4097abf2812dede1df22ea.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:53:39</t>
+    <t>385abfaf-42b1-4d73-a91a-1409782e68e5.cf803e6d9f881885e85f24e4b4207f270b0ed17c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>44a0b75c-f3bd-4539-80a5-9efc5689a44e.3954b07aa4add436cf906ff9c37c92a6c540faa1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.078f8e2ca88ca323ca2e315e6ad1be0a79b50c3e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>85182d13-9b57-4405-92c1-fdf80e0f63e5.d8529ba6d6d53b5ff2a52251f538ba633daf0480.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>8e2431e8-421e-43ec-8103-84c41ca0d7e4.42a62a0d770c5b696c5a2bbe9a6af79ca96c88f7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>c81d2227-4128-4bbe-bae6-e98edd18aa87.2dfb8152b05b8e07877420f9061854e2a0a00bd2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>35060037-961d-4aaf-8439-26da88e541a2.afe1c8775a636c37a7a305f12446b3c849d1237f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>385abfaf-42b1-4d73-a91a-1409782e68e5.cf803e6d9f881885e85f24e4b4207f270b0ed17c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>44a0b75c-f3bd-4539-80a5-9efc5689a44e.3954b07aa4add436cf906ff9c37c92a6c540faa1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.078f8e2ca88ca323ca2e315e6ad1be0a79b50c3e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>85182d13-9b57-4405-92c1-fdf80e0f63e5.d8529ba6d6d53b5ff2a52251f538ba633daf0480.de-de.xlf</t>
+  </si>
+  <si>
+    <t>8e2431e8-421e-43ec-8103-84c41ca0d7e4.42a62a0d770c5b696c5a2bbe9a6af79ca96c88f7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>c81d2227-4128-4bbe-bae6-e98edd18aa87.2dfb8152b05b8e07877420f9061854e2a0a00bd2.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -238,8 +253,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
-  <autoFilter ref="A1:P4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P8" headerRowCount="1">
+  <autoFilter ref="A1:P8"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -263,8 +278,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
-  <autoFilter ref="A1:P4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P8" headerRowCount="1">
+  <autoFilter ref="A1:P8"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -288,8 +303,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -305,7 +320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -315,8 +330,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -380,43 +395,139 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -427,7 +538,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,70 +546,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -512,40 +623,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -559,106 +670,307 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="0" t="s">
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>49</v>
+      <c r="F8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -669,7 +981,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -677,70 +989,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -754,40 +1066,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -801,106 +1113,307 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>49</v>
+      <c r="F6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>File Name</t>
   </si>
@@ -37,54 +37,84 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.md</t>
+  </si>
+  <si>
+    <t>e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:55:37</t>
+  </si>
+  <si>
+    <t>385abfaf-42b1-4d73-a91a-1409782e68e5.md</t>
+  </si>
+  <si>
+    <t>e2e\385abfaf-42b1-4d73-a91a-1409782e68e5.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:57:22</t>
+  </si>
+  <si>
+    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md</t>
+  </si>
+  <si>
+    <t>e2e\58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md</t>
+  </si>
+  <si>
+    <t>61aa49de-59cc-4317-a7ed-0b964375a556.md</t>
+  </si>
+  <si>
+    <t>e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:54:13</t>
+  </si>
+  <si>
+    <t>85182d13-9b57-4405-92c1-fdf80e0f63e5.md</t>
+  </si>
+  <si>
+    <t>e2e\85182d13-9b57-4405-92c1-fdf80e0f63e5.md</t>
+  </si>
+  <si>
+    <t>8e2431e8-421e-43ec-8103-84c41ca0d7e4.md</t>
+  </si>
+  <si>
+    <t>e2e\8e2431e8-421e-43ec-8103-84c41ca0d7e4.md</t>
+  </si>
+  <si>
+    <t>2a9b8297-828f-4742-af6d-b4536e7a2e19.md</t>
+  </si>
+  <si>
+    <t>e2e\2a9b8297-828f-4742-af6d-b4536e7a2e19.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>35060037-961d-4aaf-8439-26da88e541a2.md</t>
   </si>
   <si>
     <t>e2e\35060037-961d-4aaf-8439-26da88e541a2.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:57:22</t>
-  </si>
-  <si>
-    <t>385abfaf-42b1-4d73-a91a-1409782e68e5.md</t>
-  </si>
-  <si>
-    <t>e2e\385abfaf-42b1-4d73-a91a-1409782e68e5.md</t>
-  </si>
-  <si>
     <t>44a0b75c-f3bd-4539-80a5-9efc5689a44e.md</t>
   </si>
   <si>
     <t>e2e\44a0b75c-f3bd-4539-80a5-9efc5689a44e.md</t>
   </si>
   <si>
-    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md</t>
-  </si>
-  <si>
-    <t>e2e\58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md</t>
-  </si>
-  <si>
-    <t>85182d13-9b57-4405-92c1-fdf80e0f63e5.md</t>
-  </si>
-  <si>
-    <t>e2e\85182d13-9b57-4405-92c1-fdf80e0f63e5.md</t>
-  </si>
-  <si>
-    <t>8e2431e8-421e-43ec-8103-84c41ca0d7e4.md</t>
-  </si>
-  <si>
-    <t>e2e\8e2431e8-421e-43ec-8103-84c41ca0d7e4.md</t>
-  </si>
-  <si>
     <t>c81d2227-4128-4bbe-bae6-e98edd18aa87.md</t>
   </si>
   <si>
@@ -148,52 +178,100 @@
     <t>False</t>
   </si>
   <si>
+    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.d4b3e6dfd175c1572aedb888e24cda4ebb3b789d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:55:26</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:56:10</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>385abfaf-42b1-4d73-a91a-1409782e68e5.cf803e6d9f881885e85f24e4b4207f270b0ed17c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:57:11</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.078f8e2ca88ca323ca2e315e6ad1be0a79b50c3e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:54:02</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:54:47</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4f473dc1a491f1c9d83a9cb002cfa6d6d214f0df/e2e/61aa49de-59cc-4317-a7ed-0b964375a556.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/47ea9b8d4b19d05ddf486ae49d258b97d3076389/e2e/61aa49de-59cc-4317-a7ed-0b964375a556.md.</t>
+  </si>
+  <si>
+    <t>85182d13-9b57-4405-92c1-fdf80e0f63e5.d8529ba6d6d53b5ff2a52251f538ba633daf0480.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>8e2431e8-421e-43ec-8103-84c41ca0d7e4.42a62a0d770c5b696c5a2bbe9a6af79ca96c88f7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2a9b8297-828f-4742-af6d-b4536e7a2e19.c2d0cdac9fd925ea5f4097abf2812dede1df22ea.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:53:23</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4f473dc1a491f1c9d83a9cb002cfa6d6d214f0df/e2e/2a9b8297-828f-4742-af6d-b4536e7a2e19.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/47ea9b8d4b19d05ddf486ae49d258b97d3076389/e2e/2a9b8297-828f-4742-af6d-b4536e7a2e19.md.</t>
+  </si>
+  <si>
     <t>35060037-961d-4aaf-8439-26da88e541a2.afe1c8775a636c37a7a305f12446b3c849d1237f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 09:57:11</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>385abfaf-42b1-4d73-a91a-1409782e68e5.cf803e6d9f881885e85f24e4b4207f270b0ed17c.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>44a0b75c-f3bd-4539-80a5-9efc5689a44e.3954b07aa4add436cf906ff9c37c92a6c540faa1.zh-cn.xlf</t>
   </si>
   <si>
-    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.078f8e2ca88ca323ca2e315e6ad1be0a79b50c3e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>85182d13-9b57-4405-92c1-fdf80e0f63e5.d8529ba6d6d53b5ff2a52251f538ba633daf0480.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>8e2431e8-421e-43ec-8103-84c41ca0d7e4.42a62a0d770c5b696c5a2bbe9a6af79ca96c88f7.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>c81d2227-4128-4bbe-bae6-e98edd18aa87.2dfb8152b05b8e07877420f9061854e2a0a00bd2.zh-cn.xlf</t>
   </si>
   <si>
+    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.d4b3e6dfd175c1572aedb888e24cda4ebb3b789d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:56:26</t>
+  </si>
+  <si>
+    <t>385abfaf-42b1-4d73-a91a-1409782e68e5.cf803e6d9f881885e85f24e4b4207f270b0ed17c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.078f8e2ca88ca323ca2e315e6ad1be0a79b50c3e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:55:02</t>
+  </si>
+  <si>
+    <t>85182d13-9b57-4405-92c1-fdf80e0f63e5.d8529ba6d6d53b5ff2a52251f538ba633daf0480.de-de.xlf</t>
+  </si>
+  <si>
+    <t>8e2431e8-421e-43ec-8103-84c41ca0d7e4.42a62a0d770c5b696c5a2bbe9a6af79ca96c88f7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2a9b8297-828f-4742-af6d-b4536e7a2e19.c2d0cdac9fd925ea5f4097abf2812dede1df22ea.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:53:39</t>
+  </si>
+  <si>
     <t>35060037-961d-4aaf-8439-26da88e541a2.afe1c8775a636c37a7a305f12446b3c849d1237f.de-de.xlf</t>
   </si>
   <si>
-    <t>385abfaf-42b1-4d73-a91a-1409782e68e5.cf803e6d9f881885e85f24e4b4207f270b0ed17c.de-de.xlf</t>
-  </si>
-  <si>
     <t>44a0b75c-f3bd-4539-80a5-9efc5689a44e.3954b07aa4add436cf906ff9c37c92a6c540faa1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.078f8e2ca88ca323ca2e315e6ad1be0a79b50c3e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>85182d13-9b57-4405-92c1-fdf80e0f63e5.d8529ba6d6d53b5ff2a52251f538ba633daf0480.de-de.xlf</t>
-  </si>
-  <si>
-    <t>8e2431e8-421e-43ec-8103-84c41ca0d7e4.42a62a0d770c5b696c5a2bbe9a6af79ca96c88f7.de-de.xlf</t>
   </si>
   <si>
     <t>c81d2227-4128-4bbe-bae6-e98edd18aa87.2dfb8152b05b8e07877420f9061854e2a0a00bd2.de-de.xlf</t>
@@ -253,8 +331,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P8" headerRowCount="1">
-  <autoFilter ref="A1:P8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P11" headerRowCount="1">
+  <autoFilter ref="A1:P11"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -278,8 +356,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P8" headerRowCount="1">
-  <autoFilter ref="A1:P8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P11" headerRowCount="1">
+  <autoFilter ref="A1:P11"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -303,8 +381,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
-  <autoFilter ref="A1:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G11" headerRowCount="1">
+  <autoFilter ref="A1:G11"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -320,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -330,8 +408,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -395,44 +473,44 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -441,21 +519,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -464,21 +542,21 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -487,21 +565,21 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -510,24 +588,96 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId5"/>
+    <hyperlink ref="B4" display="e2e\58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId8"/>
+    <hyperlink ref="B8" display="e2e\2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId10"/>
+    <hyperlink ref="B11" display="e2e\c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -538,7 +688,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -546,70 +696,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -623,40 +773,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -670,22 +820,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -694,19 +844,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -714,28 +864,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -744,19 +894,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -764,78 +914,78 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>63</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -844,19 +994,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -864,28 +1014,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -894,19 +1044,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -914,63 +1064,219 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
+        <v>63</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P8" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId8"/>
+    <hyperlink ref="A2" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId6"/>
+    <hyperlink ref="I5" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId10"/>
+    <hyperlink ref="I8" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId11"/>
+    <hyperlink ref="A9" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId12"/>
+    <hyperlink ref="A10" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId13"/>
+    <hyperlink ref="A11" display="c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -981,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -989,70 +1295,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -1066,40 +1372,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1113,22 +1419,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -1137,19 +1443,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1157,28 +1463,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1187,19 +1493,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1207,78 +1513,78 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1287,19 +1593,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1307,28 +1613,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1337,19 +1643,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1357,63 +1663,219 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="0" t="s">
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId8"/>
+    <hyperlink ref="A2" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId6"/>
+    <hyperlink ref="I5" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId10"/>
+    <hyperlink ref="I8" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId11"/>
+    <hyperlink ref="A9" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId12"/>
+    <hyperlink ref="A10" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId13"/>
+    <hyperlink ref="A11" display="c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>File Name</t>
   </si>
@@ -37,48 +37,60 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>35060037-961d-4aaf-8439-26da88e541a2.md</t>
+  </si>
+  <si>
+    <t>e2e\35060037-961d-4aaf-8439-26da88e541a2.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:57:22</t>
+  </si>
+  <si>
+    <t>385abfaf-42b1-4d73-a91a-1409782e68e5.md</t>
+  </si>
+  <si>
+    <t>e2e\385abfaf-42b1-4d73-a91a-1409782e68e5.md</t>
+  </si>
+  <si>
+    <t>44a0b75c-f3bd-4539-80a5-9efc5689a44e.md</t>
+  </si>
+  <si>
+    <t>e2e\44a0b75c-f3bd-4539-80a5-9efc5689a44e.md</t>
+  </si>
+  <si>
+    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md</t>
+  </si>
+  <si>
+    <t>e2e\58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md</t>
+  </si>
+  <si>
     <t>e9ce2b69-2eef-4284-affa-53080365dcb7.md</t>
   </si>
   <si>
     <t>e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-10-10 09:55:37</t>
   </si>
   <si>
-    <t>385abfaf-42b1-4d73-a91a-1409782e68e5.md</t>
-  </si>
-  <si>
-    <t>e2e\385abfaf-42b1-4d73-a91a-1409782e68e5.md</t>
+    <t>61aa49de-59cc-4317-a7ed-0b964375a556.md</t>
+  </si>
+  <si>
+    <t>e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md</t>
   </si>
   <si>
     <t>In Translation</t>
   </si>
   <si>
-    <t>2016-10-10 09:57:22</t>
-  </si>
-  <si>
-    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md</t>
-  </si>
-  <si>
-    <t>e2e\58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md</t>
-  </si>
-  <si>
-    <t>61aa49de-59cc-4317-a7ed-0b964375a556.md</t>
-  </si>
-  <si>
-    <t>e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md</t>
-  </si>
-  <si>
     <t>2016-10-10 09:54:13</t>
   </si>
   <si>
@@ -103,18 +115,6 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>35060037-961d-4aaf-8439-26da88e541a2.md</t>
-  </si>
-  <si>
-    <t>e2e\35060037-961d-4aaf-8439-26da88e541a2.md</t>
-  </si>
-  <si>
-    <t>44a0b75c-f3bd-4539-80a5-9efc5689a44e.md</t>
-  </si>
-  <si>
-    <t>e2e\44a0b75c-f3bd-4539-80a5-9efc5689a44e.md</t>
-  </si>
-  <si>
     <t>c81d2227-4128-4bbe-bae6-e98edd18aa87.md</t>
   </si>
   <si>
@@ -178,6 +178,27 @@
     <t>False</t>
   </si>
   <si>
+    <t>35060037-961d-4aaf-8439-26da88e541a2.afe1c8775a636c37a7a305f12446b3c849d1237f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:57:11</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:58:29</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>385abfaf-42b1-4d73-a91a-1409782e68e5.cf803e6d9f881885e85f24e4b4207f270b0ed17c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>44a0b75c-f3bd-4539-80a5-9efc5689a44e.3954b07aa4add436cf906ff9c37c92a6c540faa1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.078f8e2ca88ca323ca2e315e6ad1be0a79b50c3e.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>e9ce2b69-2eef-4284-affa-53080365dcb7.d4b3e6dfd175c1572aedb888e24cda4ebb3b789d.zh-cn.xlf</t>
   </si>
   <si>
@@ -187,36 +208,24 @@
     <t>2016-10-10 09:56:10</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>385abfaf-42b1-4d73-a91a-1409782e68e5.cf803e6d9f881885e85f24e4b4207f270b0ed17c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:57:11</t>
+    <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:54:02</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:54:47</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4f473dc1a491f1c9d83a9cb002cfa6d6d214f0df/e2e/61aa49de-59cc-4317-a7ed-0b964375a556.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/47ea9b8d4b19d05ddf486ae49d258b97d3076389/e2e/61aa49de-59cc-4317-a7ed-0b964375a556.md.</t>
+  </si>
+  <si>
+    <t>85182d13-9b57-4405-92c1-fdf80e0f63e5.d8529ba6d6d53b5ff2a52251f538ba633daf0480.zh-cn.xlf</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.078f8e2ca88ca323ca2e315e6ad1be0a79b50c3e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:54:02</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:54:47</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4f473dc1a491f1c9d83a9cb002cfa6d6d214f0df/e2e/61aa49de-59cc-4317-a7ed-0b964375a556.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/47ea9b8d4b19d05ddf486ae49d258b97d3076389/e2e/61aa49de-59cc-4317-a7ed-0b964375a556.md.</t>
-  </si>
-  <si>
-    <t>85182d13-9b57-4405-92c1-fdf80e0f63e5.d8529ba6d6d53b5ff2a52251f538ba633daf0480.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>8e2431e8-421e-43ec-8103-84c41ca0d7e4.42a62a0d770c5b696c5a2bbe9a6af79ca96c88f7.zh-cn.xlf</t>
   </si>
   <si>
@@ -229,27 +238,30 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4f473dc1a491f1c9d83a9cb002cfa6d6d214f0df/e2e/2a9b8297-828f-4742-af6d-b4536e7a2e19.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/47ea9b8d4b19d05ddf486ae49d258b97d3076389/e2e/2a9b8297-828f-4742-af6d-b4536e7a2e19.md.</t>
   </si>
   <si>
-    <t>35060037-961d-4aaf-8439-26da88e541a2.afe1c8775a636c37a7a305f12446b3c849d1237f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>44a0b75c-f3bd-4539-80a5-9efc5689a44e.3954b07aa4add436cf906ff9c37c92a6c540faa1.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>c81d2227-4128-4bbe-bae6-e98edd18aa87.2dfb8152b05b8e07877420f9061854e2a0a00bd2.zh-cn.xlf</t>
   </si>
   <si>
+    <t>35060037-961d-4aaf-8439-26da88e541a2.afe1c8775a636c37a7a305f12446b3c849d1237f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:58:46</t>
+  </si>
+  <si>
+    <t>385abfaf-42b1-4d73-a91a-1409782e68e5.cf803e6d9f881885e85f24e4b4207f270b0ed17c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>44a0b75c-f3bd-4539-80a5-9efc5689a44e.3954b07aa4add436cf906ff9c37c92a6c540faa1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.078f8e2ca88ca323ca2e315e6ad1be0a79b50c3e.de-de.xlf</t>
+  </si>
+  <si>
     <t>e9ce2b69-2eef-4284-affa-53080365dcb7.d4b3e6dfd175c1572aedb888e24cda4ebb3b789d.de-de.xlf</t>
   </si>
   <si>
     <t>2016-10-10 09:56:26</t>
   </si>
   <si>
-    <t>385abfaf-42b1-4d73-a91a-1409782e68e5.cf803e6d9f881885e85f24e4b4207f270b0ed17c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.078f8e2ca88ca323ca2e315e6ad1be0a79b50c3e.de-de.xlf</t>
-  </si>
-  <si>
     <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.de-de.xlf</t>
   </si>
   <si>
@@ -266,12 +278,6 @@
   </si>
   <si>
     <t>2016-10-10 09:53:39</t>
-  </si>
-  <si>
-    <t>35060037-961d-4aaf-8439-26da88e541a2.afe1c8775a636c37a7a305f12446b3c849d1237f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>44a0b75c-f3bd-4539-80a5-9efc5689a44e.3954b07aa4add436cf906ff9c37c92a6c540faa1.de-de.xlf</t>
   </si>
   <si>
     <t>c81d2227-4128-4bbe-bae6-e98edd18aa87.2dfb8152b05b8e07877420f9061854e2a0a00bd2.de-de.xlf</t>
@@ -473,21 +479,21 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -496,21 +502,21 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -519,21 +525,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -542,36 +548,36 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="F7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -588,22 +594,22 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
       </c>
@@ -611,36 +617,36 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="F10" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -657,26 +663,26 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId10"/>
+    <hyperlink ref="B4" display="e2e\44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId10"/>
     <hyperlink ref="B11" display="e2e\c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
@@ -820,7 +826,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>51</v>
@@ -835,16 +841,16 @@
         <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -864,37 +870,37 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -914,13 +920,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>51</v>
@@ -932,19 +938,19 @@
         <v>53</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
@@ -959,18 +965,18 @@
         <v>53</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>51</v>
@@ -982,19 +988,19 @@
         <v>53</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
@@ -1014,14 +1020,14 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" s="0" t="s">
         <v>51</v>
       </c>
@@ -1032,34 +1038,34 @@
         <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1070,7 +1076,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>51</v>
@@ -1085,13 +1091,13 @@
         <v>68</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>69</v>
@@ -1109,18 +1115,18 @@
         <v>53</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>51</v>
@@ -1132,10 +1138,10 @@
         <v>53</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1144,7 +1150,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>10</v>
@@ -1164,13 +1170,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>51</v>
@@ -1182,20 +1188,20 @@
         <v>53</v>
       </c>
       <c r="G10" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L10" s="0" t="s">
         <v>10</v>
       </c>
@@ -1209,7 +1215,7 @@
         <v>53</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1220,7 +1226,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>51</v>
@@ -1232,10 +1238,10 @@
         <v>53</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
@@ -1244,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>10</v>
@@ -1264,19 +1270,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId3"/>
     <hyperlink ref="A3" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId6"/>
-    <hyperlink ref="I5" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId10"/>
-    <hyperlink ref="I8" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId11"/>
-    <hyperlink ref="A9" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId12"/>
-    <hyperlink ref="A10" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId13"/>
-    <hyperlink ref="A11" display="c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId14"/>
+    <hyperlink ref="I3" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId10"/>
+    <hyperlink ref="I6" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId12"/>
+    <hyperlink ref="I7" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId14"/>
+    <hyperlink ref="A9" display="8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId15"/>
+    <hyperlink ref="A10" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId16"/>
+    <hyperlink ref="I10" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId17"/>
+    <hyperlink ref="A11" display="c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1381,7 +1391,7 @@
         <v>53</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1390,10 +1400,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -1419,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>51</v>
@@ -1431,19 +1441,19 @@
         <v>53</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -1463,37 +1473,37 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -1513,13 +1523,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>51</v>
@@ -1531,19 +1541,19 @@
         <v>53</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
@@ -1558,18 +1568,18 @@
         <v>53</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>51</v>
@@ -1584,16 +1594,16 @@
         <v>80</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
@@ -1613,14 +1623,14 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" s="0" t="s">
         <v>51</v>
       </c>
@@ -1631,19 +1641,19 @@
         <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
@@ -1658,7 +1668,7 @@
         <v>53</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -1669,7 +1679,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>51</v>
@@ -1681,19 +1691,19 @@
         <v>53</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
@@ -1708,18 +1718,18 @@
         <v>53</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>51</v>
@@ -1731,10 +1741,10 @@
         <v>53</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1743,7 +1753,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>10</v>
@@ -1763,13 +1773,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>51</v>
@@ -1781,19 +1791,19 @@
         <v>53</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>10</v>
@@ -1808,7 +1818,7 @@
         <v>53</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1819,7 +1829,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>51</v>
@@ -1831,10 +1841,10 @@
         <v>53</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
@@ -1843,7 +1853,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>10</v>
@@ -1863,19 +1873,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId3"/>
     <hyperlink ref="A3" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId6"/>
-    <hyperlink ref="I5" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId10"/>
-    <hyperlink ref="I8" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId11"/>
-    <hyperlink ref="A9" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId12"/>
-    <hyperlink ref="A10" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId13"/>
-    <hyperlink ref="A11" display="c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId14"/>
+    <hyperlink ref="I3" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId10"/>
+    <hyperlink ref="I6" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId12"/>
+    <hyperlink ref="I7" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId14"/>
+    <hyperlink ref="A9" display="8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId15"/>
+    <hyperlink ref="A10" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId16"/>
+    <hyperlink ref="I10" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId17"/>
+    <hyperlink ref="A11" display="c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>File Name</t>
   </si>
@@ -55,45 +55,30 @@
     <t>2016-10-10 09:57:22</t>
   </si>
   <si>
+    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md</t>
+  </si>
+  <si>
+    <t>e2e\58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md</t>
+  </si>
+  <si>
     <t>385abfaf-42b1-4d73-a91a-1409782e68e5.md</t>
   </si>
   <si>
     <t>e2e\385abfaf-42b1-4d73-a91a-1409782e68e5.md</t>
   </si>
   <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:59:18</t>
+  </si>
+  <si>
     <t>44a0b75c-f3bd-4539-80a5-9efc5689a44e.md</t>
   </si>
   <si>
     <t>e2e\44a0b75c-f3bd-4539-80a5-9efc5689a44e.md</t>
   </si>
   <si>
-    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md</t>
-  </si>
-  <si>
-    <t>e2e\58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md</t>
-  </si>
-  <si>
-    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.md</t>
-  </si>
-  <si>
-    <t>e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:55:37</t>
-  </si>
-  <si>
-    <t>61aa49de-59cc-4317-a7ed-0b964375a556.md</t>
-  </si>
-  <si>
-    <t>e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:54:13</t>
-  </si>
-  <si>
     <t>85182d13-9b57-4405-92c1-fdf80e0f63e5.md</t>
   </si>
   <si>
@@ -106,10 +91,10 @@
     <t>e2e\8e2431e8-421e-43ec-8103-84c41ca0d7e4.md</t>
   </si>
   <si>
-    <t>2a9b8297-828f-4742-af6d-b4536e7a2e19.md</t>
-  </si>
-  <si>
-    <t>e2e\2a9b8297-828f-4742-af6d-b4536e7a2e19.md</t>
+    <t>07bc7ae4-4bc4-46fc-b0ad-df3cdef31cfd.md</t>
+  </si>
+  <si>
+    <t>e2e\07bc7ae4-4bc4-46fc-b0ad-df3cdef31cfd.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
@@ -190,36 +175,21 @@
     <t>True</t>
   </si>
   <si>
+    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.078f8e2ca88ca323ca2e315e6ad1be0a79b50c3e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
     <t>385abfaf-42b1-4d73-a91a-1409782e68e5.cf803e6d9f881885e85f24e4b4207f270b0ed17c.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-10-10 09:59:08</t>
+  </si>
+  <si>
     <t>44a0b75c-f3bd-4539-80a5-9efc5689a44e.3954b07aa4add436cf906ff9c37c92a6c540faa1.zh-cn.xlf</t>
   </si>
   <si>
-    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.078f8e2ca88ca323ca2e315e6ad1be0a79b50c3e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.d4b3e6dfd175c1572aedb888e24cda4ebb3b789d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:55:26</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:56:10</t>
-  </si>
-  <si>
-    <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:54:02</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:54:47</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4f473dc1a491f1c9d83a9cb002cfa6d6d214f0df/e2e/61aa49de-59cc-4317-a7ed-0b964375a556.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/47ea9b8d4b19d05ddf486ae49d258b97d3076389/e2e/61aa49de-59cc-4317-a7ed-0b964375a556.md.</t>
-  </si>
-  <si>
     <t>85182d13-9b57-4405-92c1-fdf80e0f63e5.d8529ba6d6d53b5ff2a52251f538ba633daf0480.zh-cn.xlf</t>
   </si>
   <si>
@@ -229,13 +199,7 @@
     <t>8e2431e8-421e-43ec-8103-84c41ca0d7e4.42a62a0d770c5b696c5a2bbe9a6af79ca96c88f7.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2a9b8297-828f-4742-af6d-b4536e7a2e19.c2d0cdac9fd925ea5f4097abf2812dede1df22ea.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:53:23</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4f473dc1a491f1c9d83a9cb002cfa6d6d214f0df/e2e/2a9b8297-828f-4742-af6d-b4536e7a2e19.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/47ea9b8d4b19d05ddf486ae49d258b97d3076389/e2e/2a9b8297-828f-4742-af6d-b4536e7a2e19.md.</t>
+    <t>07bc7ae4-4bc4-46fc-b0ad-df3cdef31cfd.c59d77741f0297fbfd1f232f261dbf794e2e4d9e.zh-cn.xlf</t>
   </si>
   <si>
     <t>c81d2227-4128-4bbe-bae6-e98edd18aa87.2dfb8152b05b8e07877420f9061854e2a0a00bd2.zh-cn.xlf</t>
@@ -247,37 +211,22 @@
     <t>2016-10-10 09:58:46</t>
   </si>
   <si>
+    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.078f8e2ca88ca323ca2e315e6ad1be0a79b50c3e.de-de.xlf</t>
+  </si>
+  <si>
     <t>385abfaf-42b1-4d73-a91a-1409782e68e5.cf803e6d9f881885e85f24e4b4207f270b0ed17c.de-de.xlf</t>
   </si>
   <si>
     <t>44a0b75c-f3bd-4539-80a5-9efc5689a44e.3954b07aa4add436cf906ff9c37c92a6c540faa1.de-de.xlf</t>
   </si>
   <si>
-    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.078f8e2ca88ca323ca2e315e6ad1be0a79b50c3e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.d4b3e6dfd175c1572aedb888e24cda4ebb3b789d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:56:26</t>
-  </si>
-  <si>
-    <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:55:02</t>
-  </si>
-  <si>
     <t>85182d13-9b57-4405-92c1-fdf80e0f63e5.d8529ba6d6d53b5ff2a52251f538ba633daf0480.de-de.xlf</t>
   </si>
   <si>
     <t>8e2431e8-421e-43ec-8103-84c41ca0d7e4.42a62a0d770c5b696c5a2bbe9a6af79ca96c88f7.de-de.xlf</t>
   </si>
   <si>
-    <t>2a9b8297-828f-4742-af6d-b4536e7a2e19.c2d0cdac9fd925ea5f4097abf2812dede1df22ea.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:53:39</t>
+    <t>07bc7ae4-4bc4-46fc-b0ad-df3cdef31cfd.c59d77741f0297fbfd1f232f261dbf794e2e4d9e.de-de.xlf</t>
   </si>
   <si>
     <t>c81d2227-4128-4bbe-bae6-e98edd18aa87.2dfb8152b05b8e07877420f9061854e2a0a00bd2.de-de.xlf</t>
@@ -337,8 +286,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P11" headerRowCount="1">
-  <autoFilter ref="A1:P11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P9" headerRowCount="1">
+  <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -362,8 +311,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P11" headerRowCount="1">
-  <autoFilter ref="A1:P11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P9" headerRowCount="1">
+  <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -387,8 +336,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G11" headerRowCount="1">
-  <autoFilter ref="A1:G11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -404,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -502,44 +451,44 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -548,21 +497,21 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -571,36 +520,36 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -617,73 +566,25 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId10"/>
-    <hyperlink ref="B11" display="e2e\c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId11"/>
+    <hyperlink ref="B3" display="e2e\58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\07bc7ae4-4bc4-46fc-b0ad-df3cdef31cfd.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -694,7 +595,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -715,57 +616,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -779,40 +680,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -829,40 +730,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -876,43 +777,43 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -920,49 +821,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -970,49 +871,49 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1020,99 +921,99 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1126,145 +1027,45 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="N9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1272,21 +1073,16 @@
   <hyperlinks>
     <hyperlink ref="A2" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId2"/>
     <hyperlink ref="I2" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId8"/>
-    <hyperlink ref="I5" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId10"/>
-    <hyperlink ref="I6" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId12"/>
-    <hyperlink ref="I7" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId14"/>
-    <hyperlink ref="A9" display="8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId15"/>
-    <hyperlink ref="A10" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId16"/>
-    <hyperlink ref="I10" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId17"/>
-    <hyperlink ref="A11" display="c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId18"/>
+    <hyperlink ref="A3" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId10"/>
+    <hyperlink ref="A7" display="8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId11"/>
+    <hyperlink ref="A8" display="07bc7ae4-4bc4-46fc-b0ad-df3cdef31cfd.md" r:id="rId12"/>
+    <hyperlink ref="A9" display="c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1297,7 +1093,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1318,57 +1114,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -1382,16 +1178,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1400,22 +1196,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1432,16 +1228,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1450,22 +1246,22 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1479,43 +1275,43 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1523,49 +1319,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1573,49 +1369,49 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1623,99 +1419,99 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1729,145 +1525,45 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="N9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1875,21 +1571,16 @@
   <hyperlinks>
     <hyperlink ref="A2" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId2"/>
     <hyperlink ref="I2" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId8"/>
-    <hyperlink ref="I5" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId10"/>
-    <hyperlink ref="I6" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId12"/>
-    <hyperlink ref="I7" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId14"/>
-    <hyperlink ref="A9" display="8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId15"/>
-    <hyperlink ref="A10" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId16"/>
-    <hyperlink ref="I10" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId17"/>
-    <hyperlink ref="A11" display="c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId18"/>
+    <hyperlink ref="A3" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="85182d13-9b57-4405-92c1-fdf80e0f63e5.md" r:id="rId10"/>
+    <hyperlink ref="A7" display="8e2431e8-421e-43ec-8103-84c41ca0d7e4.md" r:id="rId11"/>
+    <hyperlink ref="A8" display="07bc7ae4-4bc4-46fc-b0ad-df3cdef31cfd.md" r:id="rId12"/>
+    <hyperlink ref="A9" display="c81d2227-4128-4bbe-bae6-e98edd18aa87.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-10-10 10:00:46</t>
@@ -124,7 +124,7 @@
     <t>2016-10-10 10:00:34</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-10-10 10:01:31</t>
   </si>
   <si>
     <t>True</t>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>03827f75-97de-404f-892c-49491be9ae6a.65f0ceaa8c4f874599ddb3f37c99b6e135708c5b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 10:01:49</t>
   </si>
   <si>
     <t>bdd1cd65-ddec-4373-b131-d93eb2d93ad3.3c36a77d79f26932f3597fe2c307aa50bb5ff546.de-de.xlf</t>
@@ -270,8 +273,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -366,14 +369,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -457,11 +460,11 @@
       <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>36</v>
@@ -507,11 +510,11 @@
       <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>36</v>
@@ -535,7 +538,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="03827f75-97de-404f-892c-49491be9ae6a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="03827f75-97de-404f-892c-49491be9ae6a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -554,14 +559,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -645,14 +650,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -690,19 +695,19 @@
         <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -723,7 +728,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="03827f75-97de-404f-892c-49491be9ae6a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="03827f75-97de-404f-892c-49491be9ae6a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>File Name</t>
   </si>
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-10-10 10:00:46</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-10-10 10:02:40</t>
   </si>
   <si>
     <t>bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md</t>
@@ -112,7 +112,7 @@
     <t>e2e</t>
   </si>
   <si>
-    <t>ht</t>
+    <t>mt</t>
   </si>
   <si>
     <t>False</t>
@@ -121,7 +121,7 @@
     <t>03827f75-97de-404f-892c-49491be9ae6a.65f0ceaa8c4f874599ddb3f37c99b6e135708c5b.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 10:00:34</t>
+    <t>2016-10-10 10:02:30</t>
   </si>
   <si>
     <t>2016-10-10 10:01:31</t>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>bdd1cd65-ddec-4373-b131-d93eb2d93ad3.3c36a77d79f26932f3597fe2c307aa50bb5ff546.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/c1b3b32663a8e5bccc7d512cd27c068535275620/e2e/bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/ff7f73c125084210d56905fe7c3aede1546d0474/e2e/bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md.</t>
   </si>
   <si>
     <t>03827f75-97de-404f-892c-49491be9ae6a.65f0ceaa8c4f874599ddb3f37c99b6e135708c5b.de-de.xlf</t>
@@ -273,8 +276,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -369,7 +372,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -382,7 +385,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -532,7 +535,7 @@
         <v>33</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -559,7 +562,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -572,7 +575,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -645,7 +648,7 @@
         <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -654,10 +657,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -695,7 +698,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -704,10 +707,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -722,7 +725,7 @@
         <v>33</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-10-10 10:02:40</t>
@@ -124,7 +124,7 @@
     <t>2016-10-10 10:02:30</t>
   </si>
   <si>
-    <t>2016-10-10 10:01:31</t>
+    <t>2016-10-10 10:03:17</t>
   </si>
   <si>
     <t>True</t>
@@ -133,13 +133,10 @@
     <t>bdd1cd65-ddec-4373-b131-d93eb2d93ad3.3c36a77d79f26932f3597fe2c307aa50bb5ff546.zh-cn.xlf</t>
   </si>
   <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/c1b3b32663a8e5bccc7d512cd27c068535275620/e2e/bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/ff7f73c125084210d56905fe7c3aede1546d0474/e2e/bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md.</t>
-  </si>
-  <si>
     <t>03827f75-97de-404f-892c-49491be9ae6a.65f0ceaa8c4f874599ddb3f37c99b6e135708c5b.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 10:01:49</t>
+    <t>2016-10-10 10:03:33</t>
   </si>
   <si>
     <t>bdd1cd65-ddec-4373-b131-d93eb2d93ad3.3c36a77d79f26932f3597fe2c307aa50bb5ff546.de-de.xlf</t>
@@ -276,8 +273,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -372,7 +369,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -385,7 +382,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -535,7 +532,7 @@
         <v>33</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -562,7 +559,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -575,7 +572,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -648,7 +645,7 @@
         <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -657,10 +654,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -698,7 +695,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -707,10 +704,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -725,7 +722,7 @@
         <v>33</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-10-10 10:04:42</t>
@@ -61,15 +61,18 @@
     <t>e2e\8488eec8-b54a-40cc-97ad-4aa09fb263b2.md</t>
   </si>
   <si>
+    <t>Handback transform failed</t>
+  </si>
+  <si>
+    <t>bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md</t>
+  </si>
+  <si>
+    <t>e2e\bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md</t>
-  </si>
-  <si>
-    <t>e2e\bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -133,31 +136,43 @@
     <t>2016-10-10 10:04:32</t>
   </si>
   <si>
+    <t>2016-10-10 10:05:28</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>8488eec8-b54a-40cc-97ad-4aa09fb263b2.105bd724afce4498f32574cfde7a39ee3ea9383b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>The handback priority in file path mt\8488eec8-b54a-40cc-97ad-4aa09fb263b2.105bd724afce4498f32574cfde7a39ee3ea9383b.zh-cn.xlf is not match with handoff type ht.</t>
+  </si>
+  <si>
+    <t>bdd1cd65-ddec-4373-b131-d93eb2d93ad3.3c36a77d79f26932f3597fe2c307aa50bb5ff546.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-10-10 10:03:17</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>8488eec8-b54a-40cc-97ad-4aa09fb263b2.105bd724afce4498f32574cfde7a39ee3ea9383b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>bdd1cd65-ddec-4373-b131-d93eb2d93ad3.3c36a77d79f26932f3597fe2c307aa50bb5ff546.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>03827f75-97de-404f-892c-49491be9ae6a.65f0ceaa8c4f874599ddb3f37c99b6e135708c5b.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-10-10 10:05:44</t>
+  </si>
+  <si>
+    <t>8488eec8-b54a-40cc-97ad-4aa09fb263b2.105bd724afce4498f32574cfde7a39ee3ea9383b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>The handback priority in file path mt\8488eec8-b54a-40cc-97ad-4aa09fb263b2.105bd724afce4498f32574cfde7a39ee3ea9383b.de-de.xlf is not match with handoff type ht.</t>
+  </si>
+  <si>
+    <t>bdd1cd65-ddec-4373-b131-d93eb2d93ad3.3c36a77d79f26932f3597fe2c307aa50bb5ff546.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-10-10 10:03:33</t>
-  </si>
-  <si>
-    <t>8488eec8-b54a-40cc-97ad-4aa09fb263b2.105bd724afce4498f32574cfde7a39ee3ea9383b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>bdd1cd65-ddec-4373-b131-d93eb2d93ad3.3c36a77d79f26932f3597fe2c307aa50bb5ff546.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -291,8 +306,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -379,10 +394,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
@@ -411,7 +426,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -424,57 +439,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -488,40 +503,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -538,43 +553,43 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -585,43 +600,43 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -652,7 +667,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -665,57 +680,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -729,16 +744,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -747,22 +762,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -779,16 +794,16 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -800,22 +815,22 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -826,19 +841,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -847,22 +862,22 @@
         <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-10-10 10:06:39</t>
@@ -61,21 +61,21 @@
     <t>e2e\553b4ea7-9575-4e80-a82e-2be1cf0845e9.md</t>
   </si>
   <si>
+    <t>590d3974-63e2-4434-a3bf-dd498ddb840d.md</t>
+  </si>
+  <si>
+    <t>e2e\590d3974-63e2-4434-a3bf-dd498ddb840d.md</t>
+  </si>
+  <si>
+    <t>8488eec8-b54a-40cc-97ad-4aa09fb263b2.md</t>
+  </si>
+  <si>
+    <t>e2e\8488eec8-b54a-40cc-97ad-4aa09fb263b2.md</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>590d3974-63e2-4434-a3bf-dd498ddb840d.md</t>
-  </si>
-  <si>
-    <t>e2e\590d3974-63e2-4434-a3bf-dd498ddb840d.md</t>
-  </si>
-  <si>
-    <t>8488eec8-b54a-40cc-97ad-4aa09fb263b2.md</t>
-  </si>
-  <si>
-    <t>e2e\8488eec8-b54a-40cc-97ad-4aa09fb263b2.md</t>
-  </si>
-  <si>
     <t>bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md</t>
   </si>
   <si>
@@ -142,7 +142,7 @@
     <t>2016-10-10 10:06:28</t>
   </si>
   <si>
-    <t>2016-10-10 10:05:28</t>
+    <t>2016-10-10 10:07:10</t>
   </si>
   <si>
     <t>True</t>
@@ -151,15 +151,15 @@
     <t>553b4ea7-9575-4e80-a82e-2be1cf0845e9.3c194e19edd1ea8f01abdd95625930de23cb5d0f.zh-cn.xlf</t>
   </si>
   <si>
+    <t>590d3974-63e2-4434-a3bf-dd498ddb840d.7722e4d735089f4bd78a2768516599264cf6d5e4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>8488eec8-b54a-40cc-97ad-4aa09fb263b2.105bd724afce4498f32574cfde7a39ee3ea9383b.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>590d3974-63e2-4434-a3bf-dd498ddb840d.7722e4d735089f4bd78a2768516599264cf6d5e4.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>8488eec8-b54a-40cc-97ad-4aa09fb263b2.105bd724afce4498f32574cfde7a39ee3ea9383b.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>The handback priority in file path mt\8488eec8-b54a-40cc-97ad-4aa09fb263b2.105bd724afce4498f32574cfde7a39ee3ea9383b.zh-cn.xlf is not match with handoff type ht.</t>
   </si>
   <si>
@@ -172,7 +172,7 @@
     <t>03827f75-97de-404f-892c-49491be9ae6a.65f0ceaa8c4f874599ddb3f37c99b6e135708c5b.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 10:05:44</t>
+    <t>2016-10-10 10:07:26</t>
   </si>
   <si>
     <t>553b4ea7-9575-4e80-a82e-2be1cf0845e9.3c194e19edd1ea8f01abdd95625930de23cb5d0f.de-de.xlf</t>
@@ -324,8 +324,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -389,10 +389,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -400,11 +400,11 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
@@ -412,10 +412,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
@@ -423,22 +423,22 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>12</v>
@@ -458,10 +458,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
@@ -492,7 +492,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -616,7 +616,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>38</v>
@@ -633,14 +633,14 @@
       <c r="H3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -660,13 +660,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>38</v>
@@ -678,19 +678,19 @@
         <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -710,13 +710,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>38</v>
@@ -728,7 +728,7 @@
         <v>39</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>41</v>
@@ -740,7 +740,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
@@ -766,7 +766,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>38</v>
@@ -813,10 +813,12 @@
     <hyperlink ref="A2" display="03827f75-97de-404f-892c-49491be9ae6a.md" r:id="rId2"/>
     <hyperlink ref="I2" display="03827f75-97de-404f-892c-49491be9ae6a.md" r:id="rId3"/>
     <hyperlink ref="A3" display="553b4ea7-9575-4e80-a82e-2be1cf0845e9.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="590d3974-63e2-4434-a3bf-dd498ddb840d.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="8488eec8-b54a-40cc-97ad-4aa09fb263b2.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md" r:id="rId7"/>
-    <hyperlink ref="I6" display="bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md" r:id="rId8"/>
+    <hyperlink ref="I3" display="553b4ea7-9575-4e80-a82e-2be1cf0845e9.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="590d3974-63e2-4434-a3bf-dd498ddb840d.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="590d3974-63e2-4434-a3bf-dd498ddb840d.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="8488eec8-b54a-40cc-97ad-4aa09fb263b2.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md" r:id="rId9"/>
+    <hyperlink ref="I6" display="bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -835,7 +837,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -959,7 +961,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>38</v>
@@ -976,14 +978,14 @@
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -1003,13 +1005,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>38</v>
@@ -1026,14 +1028,14 @@
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -1053,13 +1055,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>38</v>
@@ -1083,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
@@ -1109,7 +1111,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>38</v>
@@ -1156,10 +1158,12 @@
     <hyperlink ref="A2" display="03827f75-97de-404f-892c-49491be9ae6a.md" r:id="rId2"/>
     <hyperlink ref="I2" display="03827f75-97de-404f-892c-49491be9ae6a.md" r:id="rId3"/>
     <hyperlink ref="A3" display="553b4ea7-9575-4e80-a82e-2be1cf0845e9.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="590d3974-63e2-4434-a3bf-dd498ddb840d.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="8488eec8-b54a-40cc-97ad-4aa09fb263b2.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md" r:id="rId7"/>
-    <hyperlink ref="I6" display="bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md" r:id="rId8"/>
+    <hyperlink ref="I3" display="553b4ea7-9575-4e80-a82e-2be1cf0845e9.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="590d3974-63e2-4434-a3bf-dd498ddb840d.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="590d3974-63e2-4434-a3bf-dd498ddb840d.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="8488eec8-b54a-40cc-97ad-4aa09fb263b2.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md" r:id="rId9"/>
+    <hyperlink ref="I6" display="bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-10-10 10:08:51</t>
@@ -118,13 +118,16 @@
     <t>2016-10-10 10:08:40</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-10-10 10:09:31</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>58ba7908-ddd0-4151-aa88-5daafbd0360cooooooooooooooooooooooooooooooooooooooooo.6339d507da0d5f1fdbeb10305ca8b3d8c760a30a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 10:09:47</t>
   </si>
 </sst>
 </file>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,14 +333,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -421,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -449,6 +452,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="58ba7908-ddd0-4151-aa88-5daafbd0360coooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="58ba7908-ddd0-4151-aa88-5daafbd0360coooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -467,14 +471,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -558,14 +562,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -586,6 +590,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="58ba7908-ddd0-4151-aa88-5daafbd0360coooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="58ba7908-ddd0-4151-aa88-5daafbd0360coooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-10-10 10:10:54</t>
@@ -124,7 +124,7 @@
     <t>2016-10-10 10:10:42</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-10-10 10:11:33</t>
   </si>
   <si>
     <t>True</t>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>409d22dd-f2a4-4595-9f7f-6db8a73f98bd.952b0099badabd65f42a2dc12f72b610600b94fd.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 10:11:50</t>
   </si>
   <si>
     <t>e1db48ea-93bc-4cf5-b3a4-034b402f13d4.1ee6b8cf2bb10972dd382e667cbdbe0492b0ad7f.de-de.xlf</t>
@@ -270,8 +273,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -366,14 +369,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -457,11 +460,11 @@
       <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>36</v>
@@ -507,11 +510,11 @@
       <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>36</v>
@@ -535,7 +538,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="409d22dd-f2a4-4595-9f7f-6db8a73f98bd.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="e1db48ea-93bc-4cf5-b3a4-034b402f13d4.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="409d22dd-f2a4-4595-9f7f-6db8a73f98bd.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="e1db48ea-93bc-4cf5-b3a4-034b402f13d4.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="e1db48ea-93bc-4cf5-b3a4-034b402f13d4.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -554,14 +559,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -645,14 +650,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -690,19 +695,19 @@
         <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -723,7 +728,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="409d22dd-f2a4-4595-9f7f-6db8a73f98bd.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="e1db48ea-93bc-4cf5-b3a4-034b402f13d4.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="409d22dd-f2a4-4595-9f7f-6db8a73f98bd.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="e1db48ea-93bc-4cf5-b3a4-034b402f13d4.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="e1db48ea-93bc-4cf5-b3a4-034b402f13d4.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -37,48 +37,45 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>3953decb-32ab-4ab6-be28-2bfb83893391.md</t>
+  </si>
+  <si>
+    <t>e2e\3953decb-32ab-4ab6-be28-2bfb83893391.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-10-10 10:12:47</t>
+  </si>
+  <si>
     <t>409d22dd-f2a4-4595-9f7f-6db8a73f98bd.md</t>
   </si>
   <si>
     <t>e2e\409d22dd-f2a4-4595-9f7f-6db8a73f98bd.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-10-10 10:10:54</t>
   </si>
   <si>
+    <t>c23959ec-6973-4988-90d4-6c38aa14448d.md</t>
+  </si>
+  <si>
+    <t>e2e\c23959ec-6973-4988-90d4-6c38aa14448d.md</t>
+  </si>
+  <si>
     <t>e1db48ea-93bc-4cf5-b3a4-034b402f13d4.md</t>
   </si>
   <si>
     <t>e2e\e1db48ea-93bc-4cf5-b3a4-034b402f13d4.md</t>
   </si>
   <si>
-    <t>3953decb-32ab-4ab6-be28-2bfb83893391.md</t>
-  </si>
-  <si>
-    <t>e2e\3953decb-32ab-4ab6-be28-2bfb83893391.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-10-10 10:12:47</t>
-  </si>
-  <si>
-    <t>c23959ec-6973-4988-90d4-6c38aa14448d.md</t>
-  </si>
-  <si>
-    <t>e2e\c23959ec-6973-4988-90d4-6c38aa14448d.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,12 +127,27 @@
     <t>e2e</t>
   </si>
   <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>3953decb-32ab-4ab6-be28-2bfb83893391.2495ae8bd8d865230e7fe4961d586c46f722dcbc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 10:12:36</t>
+  </si>
+  <si>
+    <t>2016-10-10 10:13:19</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>ht</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>409d22dd-f2a4-4595-9f7f-6db8a73f98bd.952b0099badabd65f42a2dc12f72b610600b94fd.zh-cn.xlf</t>
   </si>
   <si>
@@ -145,25 +157,16 @@
     <t>2016-10-10 10:11:33</t>
   </si>
   <si>
-    <t>True</t>
+    <t>c23959ec-6973-4988-90d4-6c38aa14448d.65069268d59f81c46370cbb4962bd102e79dbb53.zh-cn.xlf</t>
   </si>
   <si>
     <t>e1db48ea-93bc-4cf5-b3a4-034b402f13d4.1ee6b8cf2bb10972dd382e667cbdbe0492b0ad7f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>3953decb-32ab-4ab6-be28-2bfb83893391.2495ae8bd8d865230e7fe4961d586c46f722dcbc.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 10:12:36</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>c23959ec-6973-4988-90d4-6c38aa14448d.65069268d59f81c46370cbb4962bd102e79dbb53.zh-cn.xlf</t>
+    <t>3953decb-32ab-4ab6-be28-2bfb83893391.2495ae8bd8d865230e7fe4961d586c46f722dcbc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 10:13:34</t>
   </si>
   <si>
     <t>409d22dd-f2a4-4595-9f7f-6db8a73f98bd.952b0099badabd65f42a2dc12f72b610600b94fd.de-de.xlf</t>
@@ -172,13 +175,10 @@
     <t>2016-10-10 10:11:50</t>
   </si>
   <si>
+    <t>c23959ec-6973-4988-90d4-6c38aa14448d.65069268d59f81c46370cbb4962bd102e79dbb53.de-de.xlf</t>
+  </si>
+  <si>
     <t>e1db48ea-93bc-4cf5-b3a4-034b402f13d4.1ee6b8cf2bb10972dd382e667cbdbe0492b0ad7f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>3953decb-32ab-4ab6-be28-2bfb83893391.2495ae8bd8d865230e7fe4961d586c46f722dcbc.de-de.xlf</t>
-  </si>
-  <si>
-    <t>c23959ec-6973-4988-90d4-6c38aa14448d.65069268d59f81c46370cbb4962bd102e79dbb53.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -383,15 +383,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -400,22 +400,22 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
@@ -423,21 +423,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\409d22dd-f2a4-4595-9f7f-6db8a73f98bd.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\e1db48ea-93bc-4cf5-b3a4-034b402f13d4.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\3953decb-32ab-4ab6-be28-2bfb83893391.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\c23959ec-6973-4988-90d4-6c38aa14448d.md" r:id="rId5"/>
+    <hyperlink ref="B2" display="e2e\3953decb-32ab-4ab6-be28-2bfb83893391.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\409d22dd-f2a4-4595-9f7f-6db8a73f98bd.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\c23959ec-6973-4988-90d4-6c38aa14448d.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\e1db48ea-93bc-4cf5-b3a4-034b402f13d4.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -474,52 +474,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -533,40 +533,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -583,19 +583,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
@@ -604,19 +604,19 @@
         <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -624,49 +624,49 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -674,49 +674,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -724,12 +724,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="409d22dd-f2a4-4595-9f7f-6db8a73f98bd.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="409d22dd-f2a4-4595-9f7f-6db8a73f98bd.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="e1db48ea-93bc-4cf5-b3a4-034b402f13d4.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="e1db48ea-93bc-4cf5-b3a4-034b402f13d4.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="3953decb-32ab-4ab6-be28-2bfb83893391.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="c23959ec-6973-4988-90d4-6c38aa14448d.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="3953decb-32ab-4ab6-be28-2bfb83893391.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="3953decb-32ab-4ab6-be28-2bfb83893391.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="409d22dd-f2a4-4595-9f7f-6db8a73f98bd.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="409d22dd-f2a4-4595-9f7f-6db8a73f98bd.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="c23959ec-6973-4988-90d4-6c38aa14448d.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="c23959ec-6973-4988-90d4-6c38aa14448d.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="e1db48ea-93bc-4cf5-b3a4-034b402f13d4.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="e1db48ea-93bc-4cf5-b3a4-034b402f13d4.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -766,52 +768,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -825,16 +827,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -843,22 +845,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -875,40 +877,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -916,49 +918,49 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -966,49 +968,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1016,12 +1018,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="409d22dd-f2a4-4595-9f7f-6db8a73f98bd.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="409d22dd-f2a4-4595-9f7f-6db8a73f98bd.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="e1db48ea-93bc-4cf5-b3a4-034b402f13d4.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="e1db48ea-93bc-4cf5-b3a4-034b402f13d4.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="3953decb-32ab-4ab6-be28-2bfb83893391.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="c23959ec-6973-4988-90d4-6c38aa14448d.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="3953decb-32ab-4ab6-be28-2bfb83893391.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="3953decb-32ab-4ab6-be28-2bfb83893391.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="409d22dd-f2a4-4595-9f7f-6db8a73f98bd.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="409d22dd-f2a4-4595-9f7f-6db8a73f98bd.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="c23959ec-6973-4988-90d4-6c38aa14448d.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="c23959ec-6973-4988-90d4-6c38aa14448d.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="e1db48ea-93bc-4cf5-b3a4-034b402f13d4.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="e1db48ea-93bc-4cf5-b3a4-034b402f13d4.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>File Name</t>
   </si>
@@ -49,48 +49,54 @@
     <t/>
   </si>
   <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-10-24 10:42:44</t>
+  </si>
+  <si>
+    <t>8c34fea5-1661-408f-8e02-cd374d084021.md</t>
+  </si>
+  <si>
+    <t>e2e\8c34fea5-1661-408f-8e02-cd374d084021.md</t>
+  </si>
+  <si>
+    <t>d883cc18-9fc7-4776-ab01-91b755db7997.md</t>
+  </si>
+  <si>
+    <t>e2e\d883cc18-9fc7-4776-ab01-91b755db7997.md</t>
+  </si>
+  <si>
+    <t>f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md</t>
+  </si>
+  <si>
+    <t>e2e\f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md</t>
+  </si>
+  <si>
+    <t>8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md</t>
+  </si>
+  <si>
+    <t>e2e\8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md</t>
+  </si>
+  <si>
+    <t>e2e\bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md</t>
+  </si>
+  <si>
+    <t>888e5df1-9a2c-4e02-bd14-1b40b27a2aa3.md</t>
+  </si>
+  <si>
+    <t>e2e\888e5df1-9a2c-4e02-bd14-1b40b27a2aa3.md</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-10-24 10:42:44</t>
-  </si>
-  <si>
-    <t>8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md</t>
-  </si>
-  <si>
-    <t>e2e\8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md</t>
-  </si>
-  <si>
-    <t>888e5df1-9a2c-4e02-bd14-1b40b27a2aa3.md</t>
-  </si>
-  <si>
-    <t>e2e\888e5df1-9a2c-4e02-bd14-1b40b27a2aa3.md</t>
-  </si>
-  <si>
-    <t>8c34fea5-1661-408f-8e02-cd374d084021.md</t>
-  </si>
-  <si>
-    <t>e2e\8c34fea5-1661-408f-8e02-cd374d084021.md</t>
-  </si>
-  <si>
-    <t>bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md</t>
-  </si>
-  <si>
-    <t>e2e\bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md</t>
-  </si>
-  <si>
-    <t>d883cc18-9fc7-4776-ab01-91b755db7997.md</t>
-  </si>
-  <si>
-    <t>e2e\d883cc18-9fc7-4776-ab01-91b755db7997.md</t>
-  </si>
-  <si>
-    <t>f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md</t>
-  </si>
-  <si>
-    <t>e2e\f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -154,49 +160,55 @@
     <t>2016-10-24 10:42:10</t>
   </si>
   <si>
+    <t>2016-10-24 10:46:57</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>8c34fea5-1661-408f-8e02-cd374d084021.f346062a4d972c3544a3603fdbc20e9a5398893d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>d883cc18-9fc7-4776-ab01-91b755db7997.76bb2d628eb5d22ea97ec44608ac5b1837a68df4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>f18bbc52-abb2-4004-9a7a-4f8a482f61e0.d2b6fd46c6ddae5e04baa9ff03ea89e2e4ac7eb3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>8633bdb5-362d-4e4e-be42-a2027f5d9b4f.f5e4e4db9741135b4741a04aa62731836e86e8bf.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>8633bdb5-362d-4e4e-be42-a2027f5d9b4f.f5e4e4db9741135b4741a04aa62731836e86e8bf.zh-cn.xlf</t>
+    <t>bdc56a14-66e9-443e-b200-4fc1dd09a4c0.e09fe22e57813ea2d9baf00b71cfa7fe22d6c882.zh-cn.xlf</t>
   </si>
   <si>
     <t>888e5df1-9a2c-4e02-bd14-1b40b27a2aa3.31167ce4a5bcabc6ae0e184279dd2d5489b754f8.zh-cn.xlf</t>
   </si>
   <si>
-    <t>8c34fea5-1661-408f-8e02-cd374d084021.f346062a4d972c3544a3603fdbc20e9a5398893d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>bdc56a14-66e9-443e-b200-4fc1dd09a4c0.e09fe22e57813ea2d9baf00b71cfa7fe22d6c882.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>d883cc18-9fc7-4776-ab01-91b755db7997.76bb2d628eb5d22ea97ec44608ac5b1837a68df4.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>f18bbc52-abb2-4004-9a7a-4f8a482f61e0.d2b6fd46c6ddae5e04baa9ff03ea89e2e4ac7eb3.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>607f6cc2-17a3-4c87-854d-dc72d762e700.6374a25839073ef5578839969d650c72024a398d.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-10-24 10:47:20</t>
+  </si>
+  <si>
+    <t>8c34fea5-1661-408f-8e02-cd374d084021.f346062a4d972c3544a3603fdbc20e9a5398893d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>d883cc18-9fc7-4776-ab01-91b755db7997.76bb2d628eb5d22ea97ec44608ac5b1837a68df4.de-de.xlf</t>
+  </si>
+  <si>
+    <t>f18bbc52-abb2-4004-9a7a-4f8a482f61e0.d2b6fd46c6ddae5e04baa9ff03ea89e2e4ac7eb3.de-de.xlf</t>
+  </si>
+  <si>
     <t>8633bdb5-362d-4e4e-be42-a2027f5d9b4f.f5e4e4db9741135b4741a04aa62731836e86e8bf.de-de.xlf</t>
   </si>
   <si>
+    <t>bdc56a14-66e9-443e-b200-4fc1dd09a4c0.e09fe22e57813ea2d9baf00b71cfa7fe22d6c882.de-de.xlf</t>
+  </si>
+  <si>
     <t>888e5df1-9a2c-4e02-bd14-1b40b27a2aa3.31167ce4a5bcabc6ae0e184279dd2d5489b754f8.de-de.xlf</t>
-  </si>
-  <si>
-    <t>8c34fea5-1661-408f-8e02-cd374d084021.f346062a4d972c3544a3603fdbc20e9a5398893d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>bdc56a14-66e9-443e-b200-4fc1dd09a4c0.e09fe22e57813ea2d9baf00b71cfa7fe22d6c882.de-de.xlf</t>
-  </si>
-  <si>
-    <t>d883cc18-9fc7-4776-ab01-91b755db7997.76bb2d628eb5d22ea97ec44608ac5b1837a68df4.de-de.xlf</t>
-  </si>
-  <si>
-    <t>f18bbc52-abb2-4004-9a7a-4f8a482f61e0.d2b6fd46c6ddae5e04baa9ff03ea89e2e4ac7eb3.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -330,8 +342,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -464,10 +476,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
@@ -475,22 +487,22 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>12</v>
@@ -498,10 +510,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -510,10 +522,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>12</v>
@@ -522,12 +534,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\607f6cc2-17a3-4c87-854d-dc72d762e700.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\888e5df1-9a2c-4e02-bd14-1b40b27a2aa3.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\8c34fea5-1661-408f-8e02-cd374d084021.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\d883cc18-9fc7-4776-ab01-91b755db7997.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md" r:id="rId8"/>
+    <hyperlink ref="B3" display="e2e\8c34fea5-1661-408f-8e02-cd374d084021.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\d883cc18-9fc7-4776-ab01-91b755db7997.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\888e5df1-9a2c-4e02-bd14-1b40b27a2aa3.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -546,14 +558,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -564,52 +576,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -623,40 +635,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -673,40 +685,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -723,40 +735,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -773,40 +785,40 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -820,22 +832,22 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -844,19 +856,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -864,28 +876,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -894,19 +906,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -914,28 +926,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -944,19 +956,19 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -965,12 +977,16 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="607f6cc2-17a3-4c87-854d-dc72d762e700.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="888e5df1-9a2c-4e02-bd14-1b40b27a2aa3.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="8c34fea5-1661-408f-8e02-cd374d084021.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="d883cc18-9fc7-4776-ab01-91b755db7997.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md" r:id="rId8"/>
+    <hyperlink ref="I2" display="607f6cc2-17a3-4c87-854d-dc72d762e700.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="8c34fea5-1661-408f-8e02-cd374d084021.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="8c34fea5-1661-408f-8e02-cd374d084021.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="d883cc18-9fc7-4776-ab01-91b755db7997.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="d883cc18-9fc7-4776-ab01-91b755db7997.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md" r:id="rId10"/>
+    <hyperlink ref="A7" display="bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md" r:id="rId11"/>
+    <hyperlink ref="A8" display="888e5df1-9a2c-4e02-bd14-1b40b27a2aa3.md" r:id="rId12"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -989,14 +1005,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -1007,52 +1023,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -1066,40 +1082,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1116,40 +1132,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1166,40 +1182,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1216,40 +1232,40 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1263,19 +1279,19 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>12</v>
@@ -1287,19 +1303,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1307,25 +1323,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
@@ -1337,19 +1353,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1357,25 +1373,25 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>12</v>
@@ -1387,19 +1403,19 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1408,12 +1424,16 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="607f6cc2-17a3-4c87-854d-dc72d762e700.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="888e5df1-9a2c-4e02-bd14-1b40b27a2aa3.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="8c34fea5-1661-408f-8e02-cd374d084021.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="d883cc18-9fc7-4776-ab01-91b755db7997.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md" r:id="rId8"/>
+    <hyperlink ref="I2" display="607f6cc2-17a3-4c87-854d-dc72d762e700.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="8c34fea5-1661-408f-8e02-cd374d084021.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="8c34fea5-1661-408f-8e02-cd374d084021.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="d883cc18-9fc7-4776-ab01-91b755db7997.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="d883cc18-9fc7-4776-ab01-91b755db7997.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md" r:id="rId10"/>
+    <hyperlink ref="A7" display="bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md" r:id="rId11"/>
+    <hyperlink ref="A8" display="888e5df1-9a2c-4e02-bd14-1b40b27a2aa3.md" r:id="rId12"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>File Name</t>
   </si>
@@ -55,39 +55,42 @@
     <t>2016-10-24 10:42:44</t>
   </si>
   <si>
+    <t>f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md</t>
+  </si>
+  <si>
+    <t>e2e\f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md</t>
+  </si>
+  <si>
+    <t>8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md</t>
+  </si>
+  <si>
+    <t>e2e\8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
     <t>8c34fea5-1661-408f-8e02-cd374d084021.md</t>
   </si>
   <si>
     <t>e2e\8c34fea5-1661-408f-8e02-cd374d084021.md</t>
   </si>
   <si>
+    <t>2016-10-24 10:50:24</t>
+  </si>
+  <si>
+    <t>bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md</t>
+  </si>
+  <si>
+    <t>e2e\bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md</t>
+  </si>
+  <si>
     <t>d883cc18-9fc7-4776-ab01-91b755db7997.md</t>
   </si>
   <si>
     <t>e2e\d883cc18-9fc7-4776-ab01-91b755db7997.md</t>
   </si>
   <si>
-    <t>f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md</t>
-  </si>
-  <si>
-    <t>e2e\f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md</t>
-  </si>
-  <si>
-    <t>8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md</t>
-  </si>
-  <si>
-    <t>e2e\8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md</t>
-  </si>
-  <si>
-    <t>e2e\bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md</t>
-  </si>
-  <si>
     <t>888e5df1-9a2c-4e02-bd14-1b40b27a2aa3.md</t>
   </si>
   <si>
@@ -97,6 +100,12 @@
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>f906f0ce-9aa4-481d-b7c0-c94c35e907c6.md</t>
+  </si>
+  <si>
+    <t>e2e\f906f0ce-9aa4-481d-b7c0-c94c35e907c6.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -166,49 +175,61 @@
     <t>True</t>
   </si>
   <si>
+    <t>f18bbc52-abb2-4004-9a7a-4f8a482f61e0.d2b6fd46c6ddae5e04baa9ff03ea89e2e4ac7eb3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>8633bdb5-362d-4e4e-be42-a2027f5d9b4f.f5e4e4db9741135b4741a04aa62731836e86e8bf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
     <t>8c34fea5-1661-408f-8e02-cd374d084021.f346062a4d972c3544a3603fdbc20e9a5398893d.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-10-24 10:50:10</t>
+  </si>
+  <si>
+    <t>bdc56a14-66e9-443e-b200-4fc1dd09a4c0.e09fe22e57813ea2d9baf00b71cfa7fe22d6c882.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>d883cc18-9fc7-4776-ab01-91b755db7997.76bb2d628eb5d22ea97ec44608ac5b1837a68df4.zh-cn.xlf</t>
   </si>
   <si>
-    <t>f18bbc52-abb2-4004-9a7a-4f8a482f61e0.d2b6fd46c6ddae5e04baa9ff03ea89e2e4ac7eb3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>8633bdb5-362d-4e4e-be42-a2027f5d9b4f.f5e4e4db9741135b4741a04aa62731836e86e8bf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>bdc56a14-66e9-443e-b200-4fc1dd09a4c0.e09fe22e57813ea2d9baf00b71cfa7fe22d6c882.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>888e5df1-9a2c-4e02-bd14-1b40b27a2aa3.31167ce4a5bcabc6ae0e184279dd2d5489b754f8.zh-cn.xlf</t>
   </si>
   <si>
+    <t>f906f0ce-9aa4-481d-b7c0-c94c35e907c6.9ea4f2a0cf676cdd3e9d757ff33f0ad171d8b7ee.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>607f6cc2-17a3-4c87-854d-dc72d762e700.6374a25839073ef5578839969d650c72024a398d.de-de.xlf</t>
   </si>
   <si>
     <t>2016-10-24 10:47:20</t>
   </si>
   <si>
+    <t>f18bbc52-abb2-4004-9a7a-4f8a482f61e0.d2b6fd46c6ddae5e04baa9ff03ea89e2e4ac7eb3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>8633bdb5-362d-4e4e-be42-a2027f5d9b4f.f5e4e4db9741135b4741a04aa62731836e86e8bf.de-de.xlf</t>
+  </si>
+  <si>
     <t>8c34fea5-1661-408f-8e02-cd374d084021.f346062a4d972c3544a3603fdbc20e9a5398893d.de-de.xlf</t>
   </si>
   <si>
+    <t>bdc56a14-66e9-443e-b200-4fc1dd09a4c0.e09fe22e57813ea2d9baf00b71cfa7fe22d6c882.de-de.xlf</t>
+  </si>
+  <si>
     <t>d883cc18-9fc7-4776-ab01-91b755db7997.76bb2d628eb5d22ea97ec44608ac5b1837a68df4.de-de.xlf</t>
   </si>
   <si>
-    <t>f18bbc52-abb2-4004-9a7a-4f8a482f61e0.d2b6fd46c6ddae5e04baa9ff03ea89e2e4ac7eb3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>8633bdb5-362d-4e4e-be42-a2027f5d9b4f.f5e4e4db9741135b4741a04aa62731836e86e8bf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>bdc56a14-66e9-443e-b200-4fc1dd09a4c0.e09fe22e57813ea2d9baf00b71cfa7fe22d6c882.de-de.xlf</t>
-  </si>
-  <si>
     <t>888e5df1-9a2c-4e02-bd14-1b40b27a2aa3.31167ce4a5bcabc6ae0e184279dd2d5489b754f8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>f906f0ce-9aa4-481d-b7c0-c94c35e907c6.9ea4f2a0cf676cdd3e9d757ff33f0ad171d8b7ee.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -265,8 +286,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P8" headerRowCount="1">
-  <autoFilter ref="A1:P8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P9" headerRowCount="1">
+  <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -290,8 +311,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P8" headerRowCount="1">
-  <autoFilter ref="A1:P8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P9" headerRowCount="1">
+  <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -315,8 +336,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
-  <autoFilter ref="A1:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -332,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,10 +451,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
@@ -441,33 +462,33 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -476,10 +497,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
@@ -487,10 +508,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -499,21 +520,21 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -522,24 +543,48 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\607f6cc2-17a3-4c87-854d-dc72d762e700.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\8c34fea5-1661-408f-8e02-cd374d084021.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\d883cc18-9fc7-4776-ab01-91b755db7997.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md" r:id="rId7"/>
+    <hyperlink ref="B3" display="e2e\f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\8c34fea5-1661-408f-8e02-cd374d084021.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\d883cc18-9fc7-4776-ab01-91b755db7997.md" r:id="rId7"/>
     <hyperlink ref="B8" display="e2e\888e5df1-9a2c-4e02-bd14-1b40b27a2aa3.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\f906f0ce-9aa4-481d-b7c0-c94c35e907c6.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -550,7 +595,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -576,52 +621,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -635,40 +680,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -685,40 +730,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -732,43 +777,43 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -776,49 +821,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -826,28 +871,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -856,19 +901,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -876,49 +921,49 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -926,51 +971,101 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="0" t="s">
+      <c r="F9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -978,15 +1073,16 @@
   <hyperlinks>
     <hyperlink ref="A2" display="607f6cc2-17a3-4c87-854d-dc72d762e700.md" r:id="rId2"/>
     <hyperlink ref="I2" display="607f6cc2-17a3-4c87-854d-dc72d762e700.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="8c34fea5-1661-408f-8e02-cd374d084021.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="8c34fea5-1661-408f-8e02-cd374d084021.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="d883cc18-9fc7-4776-ab01-91b755db7997.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="d883cc18-9fc7-4776-ab01-91b755db7997.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md" r:id="rId8"/>
-    <hyperlink ref="I5" display="f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md" r:id="rId10"/>
-    <hyperlink ref="A7" display="bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md" r:id="rId11"/>
+    <hyperlink ref="A3" display="f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="8c34fea5-1661-408f-8e02-cd374d084021.md" r:id="rId7"/>
+    <hyperlink ref="I5" display="8c34fea5-1661-408f-8e02-cd374d084021.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="d883cc18-9fc7-4776-ab01-91b755db7997.md" r:id="rId10"/>
+    <hyperlink ref="I7" display="d883cc18-9fc7-4776-ab01-91b755db7997.md" r:id="rId11"/>
     <hyperlink ref="A8" display="888e5df1-9a2c-4e02-bd14-1b40b27a2aa3.md" r:id="rId12"/>
+    <hyperlink ref="A9" display="f906f0ce-9aa4-481d-b7c0-c94c35e907c6.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -997,7 +1093,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1023,52 +1119,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -1082,16 +1178,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1100,22 +1196,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1132,16 +1228,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1150,22 +1246,22 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1179,43 +1275,43 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1223,49 +1319,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1273,25 +1369,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>12</v>
@@ -1303,19 +1399,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1323,49 +1419,49 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1373,28 +1469,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1403,21 +1499,71 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1425,15 +1571,16 @@
   <hyperlinks>
     <hyperlink ref="A2" display="607f6cc2-17a3-4c87-854d-dc72d762e700.md" r:id="rId2"/>
     <hyperlink ref="I2" display="607f6cc2-17a3-4c87-854d-dc72d762e700.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="8c34fea5-1661-408f-8e02-cd374d084021.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="8c34fea5-1661-408f-8e02-cd374d084021.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="d883cc18-9fc7-4776-ab01-91b755db7997.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="d883cc18-9fc7-4776-ab01-91b755db7997.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md" r:id="rId8"/>
-    <hyperlink ref="I5" display="f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md" r:id="rId10"/>
-    <hyperlink ref="A7" display="bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md" r:id="rId11"/>
+    <hyperlink ref="A3" display="f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="f18bbc52-abb2-4004-9a7a-4f8a482f61e0.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="8633bdb5-362d-4e4e-be42-a2027f5d9b4f.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="8c34fea5-1661-408f-8e02-cd374d084021.md" r:id="rId7"/>
+    <hyperlink ref="I5" display="8c34fea5-1661-408f-8e02-cd374d084021.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="bdc56a14-66e9-443e-b200-4fc1dd09a4c0.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="d883cc18-9fc7-4776-ab01-91b755db7997.md" r:id="rId10"/>
+    <hyperlink ref="I7" display="d883cc18-9fc7-4776-ab01-91b755db7997.md" r:id="rId11"/>
     <hyperlink ref="A8" display="888e5df1-9a2c-4e02-bd14-1b40b27a2aa3.md" r:id="rId12"/>
+    <hyperlink ref="A9" display="f906f0ce-9aa4-481d-b7c0-c94c35e907c6.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-01 14:34:51</t>
@@ -124,7 +124,7 @@
     <t>2016-11-01 14:34:23</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-01 14:35:24</t>
   </si>
   <si>
     <t>True</t>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>779d8355-d9d5-407f-a0ae-7a1769f78dbc.8a2cb3bfd0b73c51d97ee3a8d46e7468cb1aafee.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-01 14:35:43</t>
   </si>
   <si>
     <t>ca05378c-4eed-4d58-81b7-acaef26b2f98.e1b1d06507fbbde168c9402354a82550e88abe18.de-de.xlf</t>
@@ -270,8 +273,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -366,14 +369,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -457,11 +460,11 @@
       <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>36</v>
@@ -507,11 +510,11 @@
       <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>36</v>
@@ -535,7 +538,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="779d8355-d9d5-407f-a0ae-7a1769f78dbc.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ca05378c-4eed-4d58-81b7-acaef26b2f98.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="779d8355-d9d5-407f-a0ae-7a1769f78dbc.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ca05378c-4eed-4d58-81b7-acaef26b2f98.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="ca05378c-4eed-4d58-81b7-acaef26b2f98.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -554,14 +559,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -645,14 +650,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -690,19 +695,19 @@
         <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -723,7 +728,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="779d8355-d9d5-407f-a0ae-7a1769f78dbc.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ca05378c-4eed-4d58-81b7-acaef26b2f98.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="779d8355-d9d5-407f-a0ae-7a1769f78dbc.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ca05378c-4eed-4d58-81b7-acaef26b2f98.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="ca05378c-4eed-4d58-81b7-acaef26b2f98.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>File Name</t>
   </si>
@@ -37,28 +37,31 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>ca05378c-4eed-4d58-81b7-acaef26b2f98.md</t>
+  </si>
+  <si>
+    <t>e2e\ca05378c-4eed-4d58-81b7-acaef26b2f98.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-11-01 14:36:30</t>
+  </si>
+  <si>
     <t>779d8355-d9d5-407f-a0ae-7a1769f78dbc.md</t>
   </si>
   <si>
     <t>e2e\779d8355-d9d5-407f-a0ae-7a1769f78dbc.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-11-01 14:34:51</t>
-  </si>
-  <si>
-    <t>ca05378c-4eed-4d58-81b7-acaef26b2f98.md</t>
-  </si>
-  <si>
-    <t>e2e\ca05378c-4eed-4d58-81b7-acaef26b2f98.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,28 +121,34 @@
     <t>False</t>
   </si>
   <si>
+    <t>ca05378c-4eed-4d58-81b7-acaef26b2f98.e1b1d06507fbbde168c9402354a82550e88abe18.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-01 14:36:17</t>
+  </si>
+  <si>
+    <t>2016-11-01 14:35:24</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/6a8a81ae9c4f62ab9fdda9497066d9a97e875364/e2e/ca05378c-4eed-4d58-81b7-acaef26b2f98.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/10235cee4f0bb0508d286a790008771e99298b13/e2e/ca05378c-4eed-4d58-81b7-acaef26b2f98.md.</t>
+  </si>
+  <si>
     <t>779d8355-d9d5-407f-a0ae-7a1769f78dbc.8a2cb3bfd0b73c51d97ee3a8d46e7468cb1aafee.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-01 14:34:23</t>
-  </si>
-  <si>
-    <t>2016-11-01 14:35:24</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>ca05378c-4eed-4d58-81b7-acaef26b2f98.e1b1d06507fbbde168c9402354a82550e88abe18.zh-cn.xlf</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/6a8a81ae9c4f62ab9fdda9497066d9a97e875364/e2e/779d8355-d9d5-407f-a0ae-7a1769f78dbc.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/10235cee4f0bb0508d286a790008771e99298b13/e2e/779d8355-d9d5-407f-a0ae-7a1769f78dbc.md.</t>
+  </si>
+  <si>
+    <t>ca05378c-4eed-4d58-81b7-acaef26b2f98.e1b1d06507fbbde168c9402354a82550e88abe18.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-01 14:35:43</t>
   </si>
   <si>
     <t>779d8355-d9d5-407f-a0ae-7a1769f78dbc.8a2cb3bfd0b73c51d97ee3a8d46e7468cb1aafee.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-01 14:35:43</t>
-  </si>
-  <si>
-    <t>ca05378c-4eed-4d58-81b7-acaef26b2f98.e1b1d06507fbbde168c9402354a82550e88abe18.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -273,8 +282,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -338,10 +347,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -349,8 +358,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\779d8355-d9d5-407f-a0ae-7a1769f78dbc.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ca05378c-4eed-4d58-81b7-acaef26b2f98.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\ca05378c-4eed-4d58-81b7-acaef26b2f98.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\779d8355-d9d5-407f-a0ae-7a1769f78dbc.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -369,7 +378,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -382,57 +391,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -446,43 +455,43 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -493,54 +502,54 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="779d8355-d9d5-407f-a0ae-7a1769f78dbc.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="779d8355-d9d5-407f-a0ae-7a1769f78dbc.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ca05378c-4eed-4d58-81b7-acaef26b2f98.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="ca05378c-4eed-4d58-81b7-acaef26b2f98.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="ca05378c-4eed-4d58-81b7-acaef26b2f98.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="ca05378c-4eed-4d58-81b7-acaef26b2f98.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="779d8355-d9d5-407f-a0ae-7a1769f78dbc.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="779d8355-d9d5-407f-a0ae-7a1769f78dbc.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -559,7 +568,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -572,57 +581,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -636,16 +645,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -654,25 +663,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -683,19 +692,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -704,33 +713,33 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="779d8355-d9d5-407f-a0ae-7a1769f78dbc.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="779d8355-d9d5-407f-a0ae-7a1769f78dbc.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ca05378c-4eed-4d58-81b7-acaef26b2f98.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="ca05378c-4eed-4d58-81b7-acaef26b2f98.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="ca05378c-4eed-4d58-81b7-acaef26b2f98.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="ca05378c-4eed-4d58-81b7-acaef26b2f98.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="779d8355-d9d5-407f-a0ae-7a1769f78dbc.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="779d8355-d9d5-407f-a0ae-7a1769f78dbc.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>File Name</t>
   </si>
@@ -127,28 +127,34 @@
     <t>2016-11-01 14:36:17</t>
   </si>
   <si>
+    <t>2016-11-01 14:37:11</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/6a8a81ae9c4f62ab9fdda9497066d9a97e875364/e2e/ca05378c-4eed-4d58-81b7-acaef26b2f98.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/10235cee4f0bb0508d286a790008771e99298b13/e2e/ca05378c-4eed-4d58-81b7-acaef26b2f98.md.</t>
+  </si>
+  <si>
+    <t>779d8355-d9d5-407f-a0ae-7a1769f78dbc.8a2cb3bfd0b73c51d97ee3a8d46e7468cb1aafee.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-11-01 14:35:24</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/6a8a81ae9c4f62ab9fdda9497066d9a97e875364/e2e/ca05378c-4eed-4d58-81b7-acaef26b2f98.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/10235cee4f0bb0508d286a790008771e99298b13/e2e/ca05378c-4eed-4d58-81b7-acaef26b2f98.md.</t>
-  </si>
-  <si>
-    <t>779d8355-d9d5-407f-a0ae-7a1769f78dbc.8a2cb3bfd0b73c51d97ee3a8d46e7468cb1aafee.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/6a8a81ae9c4f62ab9fdda9497066d9a97e875364/e2e/779d8355-d9d5-407f-a0ae-7a1769f78dbc.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/10235cee4f0bb0508d286a790008771e99298b13/e2e/779d8355-d9d5-407f-a0ae-7a1769f78dbc.md.</t>
   </si>
   <si>
     <t>ca05378c-4eed-4d58-81b7-acaef26b2f98.e1b1d06507fbbde168c9402354a82550e88abe18.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-11-01 14:37:28</t>
+  </si>
+  <si>
+    <t>779d8355-d9d5-407f-a0ae-7a1769f78dbc.8a2cb3bfd0b73c51d97ee3a8d46e7468cb1aafee.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-11-01 14:35:43</t>
-  </si>
-  <si>
-    <t>779d8355-d9d5-407f-a0ae-7a1769f78dbc.8a2cb3bfd0b73c51d97ee3a8d46e7468cb1aafee.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -526,7 +532,7 @@
         <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -541,7 +547,7 @@
         <v>34</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +660,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -663,10 +669,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -704,7 +710,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -713,10 +719,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -731,7 +737,7 @@
         <v>34</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 03:57:14</t>
+    <t>2016-11-02 03:58:03</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>04fd9213-b5eb-4040-ab3b-e5da4850045b.405ebe04302ef5523ed98abe98b75ebc24a83667.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 03:56:50</t>
+    <t>2016-11-02 03:57:48</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-02 03:58:03</t>
@@ -118,13 +118,16 @@
     <t>2016-11-02 03:57:48</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-02 03:58:43</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>04fd9213-b5eb-4040-ab3b-e5da4850045b.405ebe04302ef5523ed98abe98b75ebc24a83667.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:59:02</t>
   </si>
 </sst>
 </file>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,14 +333,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -421,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -449,6 +452,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="04fd9213-b5eb-4040-ab3b-e5da4850045b.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="04fd9213-b5eb-4040-ab3b-e5da4850045b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -467,14 +471,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -558,14 +562,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -586,6 +590,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="04fd9213-b5eb-4040-ab3b-e5da4850045b.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="04fd9213-b5eb-4040-ab3b-e5da4850045b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-11-23 11:56:45</t>
@@ -258,8 +258,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,7 +330,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -467,7 +467,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-11-23 11:56:45</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-23 11:58:12</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>2c37e513-929f-40fd-ad3a-7fac559c4422.5ce90b02802dd95f052b0d5a61b27c530be7d602.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-23 11:56:23</t>
+    <t>2016-11-23 11:57:57</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -258,8 +258,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,7 +330,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -467,7 +467,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-23 11:58:12</t>
@@ -118,13 +118,16 @@
     <t>2016-11-23 11:57:57</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-23 11:58:50</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>2c37e513-929f-40fd-ad3a-7fac559c4422.5ce90b02802dd95f052b0d5a61b27c530be7d602.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-23 11:59:09</t>
   </si>
 </sst>
 </file>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,14 +333,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -421,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -449,6 +452,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2c37e513-929f-40fd-ad3a-7fac559c4422.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="2c37e513-929f-40fd-ad3a-7fac559c4422.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -467,14 +471,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -558,14 +562,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -586,6 +590,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2c37e513-929f-40fd-ad3a-7fac559c4422.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="2c37e513-929f-40fd-ad3a-7fac559c4422.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>File Name</t>
   </si>
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-11-23 11:58:12</t>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-11-23 12:00:04</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,13 +115,16 @@
     <t>2c37e513-929f-40fd-ad3a-7fac559c4422.5ce90b02802dd95f052b0d5a61b27c530be7d602.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-23 11:57:57</t>
+    <t>2016-11-23 11:59:50</t>
   </si>
   <si>
     <t>2016-11-23 11:58:50</t>
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/40227450588301bc56ff78991e553066bf2b3601/e2e/2c37e513-929f-40fd-ad3a-7fac559c4422.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/70c8d01e1cd22392d5e86e6bffeff1da702c098e/e2e/2c37e513-929f-40fd-ad3a-7fac559c4422.md.</t>
   </si>
   <si>
     <t>2c37e513-929f-40fd-ad3a-7fac559c4422.5ce90b02802dd95f052b0d5a61b27c530be7d602.de-de.xlf</t>
@@ -261,8 +264,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -333,7 +336,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -346,7 +349,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -446,7 +449,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -471,7 +474,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -484,7 +487,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,7 +560,7 @@
         <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -566,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -584,7 +587,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-23 12:00:04</t>
@@ -118,19 +118,16 @@
     <t>2016-11-23 11:59:50</t>
   </si>
   <si>
-    <t>2016-11-23 11:58:50</t>
+    <t>2016-11-23 12:00:48</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/40227450588301bc56ff78991e553066bf2b3601/e2e/2c37e513-929f-40fd-ad3a-7fac559c4422.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/70c8d01e1cd22392d5e86e6bffeff1da702c098e/e2e/2c37e513-929f-40fd-ad3a-7fac559c4422.md.</t>
-  </si>
-  <si>
     <t>2c37e513-929f-40fd-ad3a-7fac559c4422.5ce90b02802dd95f052b0d5a61b27c530be7d602.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-11-23 11:59:09</t>
+    <t>2016-11-23 12:01:07</t>
   </si>
 </sst>
 </file>
@@ -264,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -336,7 +333,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -349,7 +346,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -449,7 +446,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -474,7 +471,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -487,7 +484,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -560,7 +557,7 @@
         <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -569,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -587,7 +584,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-12-05 08:22:55</t>
@@ -268,8 +268,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -340,7 +340,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -491,7 +491,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-12-05 08:40:07</t>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>2016-12-05 08:39:49</t>
+  </si>
+  <si>
+    <t>TestHandoff1</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -268,8 +271,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -340,7 +343,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -440,7 +443,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>10</v>
@@ -449,7 +452,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -458,7 +461,7 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -491,7 +494,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -585,13 +588,13 @@
         <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>10</v>
@@ -600,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -609,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-12-05 11:19:23</t>
@@ -268,8 +268,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -340,7 +340,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -491,7 +491,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-12-05 11:19:23</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-12-05 11:21:07</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,7 +121,7 @@
     <t>16150b8d-9227-40a3-98c9-6524522ef9ee.ca5eafd7f7502cccde19ada7b6dec0e95528544a.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-12-05 11:19:06</t>
+    <t>2016-12-05 11:20:52</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -268,8 +268,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -340,7 +340,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -491,7 +491,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-12-05 11:21:07</t>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-12-05 11:21:58</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,7 +121,7 @@
     <t>16150b8d-9227-40a3-98c9-6524522ef9ee.ca5eafd7f7502cccde19ada7b6dec0e95528544a.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-12-05 11:20:52</t>
+    <t>2016-12-05 11:21:45</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -268,8 +268,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -340,7 +340,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -491,7 +491,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-12-05 14:08:20</t>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>2016-12-05 14:08:02</t>
+  </si>
+  <si>
+    <t>TestHandoff_2016-12-05-10-09</t>
   </si>
   <si>
     <t>2016-09-28 06:59:02</t>
@@ -274,8 +277,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -346,13 +349,13 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
+    <col min="9" max="9" width="29.0487613677979" customWidth="1"/>
     <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
@@ -446,7 +449,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
@@ -455,7 +458,7 @@
         <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -464,7 +467,7 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -473,7 +476,7 @@
         <v>33</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -498,13 +501,13 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
+    <col min="9" max="9" width="29.0487613677979" customWidth="1"/>
     <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
@@ -592,22 +595,22 @@
         <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -616,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -625,7 +628,7 @@
         <v>33</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-12-05 14:13:16</t>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>2016-12-05 14:13:00</t>
+  </si>
+  <si>
+    <t>TestHandoff_2016-12-05-10-15</t>
   </si>
   <si>
     <t>2016-09-28 06:59:02</t>
@@ -274,8 +277,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -346,13 +349,13 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
+    <col min="9" max="9" width="29.0487613677979" customWidth="1"/>
     <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
@@ -446,7 +449,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
@@ -455,7 +458,7 @@
         <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -464,7 +467,7 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -473,7 +476,7 @@
         <v>33</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -498,13 +501,13 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
+    <col min="9" max="9" width="29.0487613677979" customWidth="1"/>
     <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
@@ -592,22 +595,22 @@
         <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -616,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -625,7 +628,7 @@
         <v>33</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-12-07 15:14:24</t>
@@ -130,7 +130,10 @@
     <t>2016-12-07 15:14:09</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-12-07 15:16:35</t>
+  </si>
+  <si>
+    <t>Full_HB_2016120714</t>
   </si>
   <si>
     <t>True</t>
@@ -140,6 +143,9 @@
   </si>
   <si>
     <t>376319d0-8a36-41df-a733-1514eec59030.f99f3b235342b6157851d08e12027a0367c4b6da.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-12-07 15:16:54</t>
   </si>
   <si>
     <t>f74c6d08-1944-416a-8354-70bc988aee90.e9f484d2a1958e71b8b0783afae47121bf1601a8.de-de.xlf</t>
@@ -280,8 +286,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -376,15 +382,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -478,23 +484,23 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -526,7 +532,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>37</v>
@@ -534,23 +540,23 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -565,7 +571,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="376319d0-8a36-41df-a733-1514eec59030.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="f74c6d08-1944-416a-8354-70bc988aee90.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="376319d0-8a36-41df-a733-1514eec59030.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="f74c6d08-1944-416a-8354-70bc988aee90.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="f74c6d08-1944-416a-8354-70bc988aee90.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -584,15 +592,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -678,7 +686,7 @@
         <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -686,23 +694,23 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -734,7 +742,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -742,23 +750,23 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -773,7 +781,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="376319d0-8a36-41df-a733-1514eec59030.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="f74c6d08-1944-416a-8354-70bc988aee90.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="376319d0-8a36-41df-a733-1514eec59030.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="f74c6d08-1944-416a-8354-70bc988aee90.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="f74c6d08-1944-416a-8354-70bc988aee90.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -49,6 +49,9 @@
     <t/>
   </si>
   <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
@@ -130,16 +133,22 @@
     <t>2016-12-07 15:34:37</t>
   </si>
   <si>
+    <t>2016-12-07 15:38:24</t>
+  </si>
+  <si>
+    <t>API_HB_2016120735</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>bd9c035d-2230-4420-9d62-92be4a928165.b48774af63ffece53a2cece15a8c04f75342156f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>56b1df34-fe68-4f03-969a-eb0500fd1905.0ed464c2fd5d06e6c95afe0512f98361f8cc7b88.de-de.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>bd9c035d-2230-4420-9d62-92be4a928165.b48774af63ffece53a2cece15a8c04f75342156f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>56b1df34-fe68-4f03-969a-eb0500fd1905.0ed464c2fd5d06e6c95afe0512f98361f8cc7b88.de-de.xlf</t>
   </si>
   <si>
     <t>bd9c035d-2230-4420-9d62-92be4a928165.b48774af63ffece53a2cece15a8c04f75342156f.de-de.xlf</t>
@@ -280,7 +289,7 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
     <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
@@ -325,18 +334,18 @@
         <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>9</v>
@@ -348,10 +357,10 @@
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -376,15 +385,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -396,58 +405,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -461,46 +470,46 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>35</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -508,7 +517,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -517,46 +526,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -565,7 +574,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="56b1df34-fe68-4f03-969a-eb0500fd1905.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="bd9c035d-2230-4420-9d62-92be4a928165.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="56b1df34-fe68-4f03-969a-eb0500fd1905.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="bd9c035d-2230-4420-9d62-92be4a928165.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="bd9c035d-2230-4420-9d62-92be4a928165.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -604,58 +615,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -666,49 +677,49 @@
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -716,28 +727,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -749,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -758,13 +769,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -49,6 +49,9 @@
     <t/>
   </si>
   <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
@@ -130,16 +133,22 @@
     <t>2016-12-07 15:44:03</t>
   </si>
   <si>
+    <t>2016-12-07 15:45:02</t>
+  </si>
+  <si>
+    <t>API_HB_2016120744</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>bc6bae7b-e989-49b6-a053-0af048e61fba.c05370cdba5e515525b017ad65c09b51317edce8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>59cdd925-d931-42bd-bcc2-66164968f876.c86247794ee15cae710592e88eb821099f4a3bc5.de-de.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>bc6bae7b-e989-49b6-a053-0af048e61fba.c05370cdba5e515525b017ad65c09b51317edce8.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>59cdd925-d931-42bd-bcc2-66164968f876.c86247794ee15cae710592e88eb821099f4a3bc5.de-de.xlf</t>
   </si>
   <si>
     <t>bc6bae7b-e989-49b6-a053-0af048e61fba.c05370cdba5e515525b017ad65c09b51317edce8.de-de.xlf</t>
@@ -280,7 +289,7 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
     <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
@@ -325,18 +334,18 @@
         <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>9</v>
@@ -348,10 +357,10 @@
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -376,15 +385,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -396,58 +405,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -461,46 +470,46 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>35</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -508,7 +517,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -517,46 +526,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -565,7 +574,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="59cdd925-d931-42bd-bcc2-66164968f876.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="bc6bae7b-e989-49b6-a053-0af048e61fba.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="59cdd925-d931-42bd-bcc2-66164968f876.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="bc6bae7b-e989-49b6-a053-0af048e61fba.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="bc6bae7b-e989-49b6-a053-0af048e61fba.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -604,58 +615,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -666,49 +677,49 @@
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -716,28 +727,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -749,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -758,13 +769,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-12-07 16:15:06</t>
@@ -130,7 +130,7 @@
     <t>2016-12-07 16:14:50</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-12-07 16:17:56</t>
   </si>
   <si>
     <t>True</t>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>102e1abc-00c5-4f9e-a31d-12235ad21946.9be94b465cade67456d2bc21589013099e191009.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-12-07 16:18:31</t>
   </si>
   <si>
     <t>f198224d-f754-4563-951c-42260f9b0b60.7b9efcd2840c40db1dce1d193aa1b383d7cacfd0.de-de.xlf</t>
@@ -280,8 +283,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -376,15 +379,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -478,11 +481,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>38</v>
@@ -534,11 +537,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
@@ -565,7 +568,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="102e1abc-00c5-4f9e-a31d-12235ad21946.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="f198224d-f754-4563-951c-42260f9b0b60.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="102e1abc-00c5-4f9e-a31d-12235ad21946.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="f198224d-f754-4563-951c-42260f9b0b60.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="f198224d-f754-4563-951c-42260f9b0b60.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -584,15 +589,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -686,14 +691,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -734,7 +739,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -742,14 +747,14 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -773,7 +778,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="102e1abc-00c5-4f9e-a31d-12235ad21946.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="f198224d-f754-4563-951c-42260f9b0b60.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="102e1abc-00c5-4f9e-a31d-12235ad21946.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="f198224d-f754-4563-951c-42260f9b0b60.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="f198224d-f754-4563-951c-42260f9b0b60.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-12-07 16:23:11</t>
@@ -130,7 +130,7 @@
     <t>2016-12-07 16:22:55</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-12-07 16:23:55</t>
   </si>
   <si>
     <t>True</t>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>0b610a72-62f1-41d3-b4a5-c24ee819dd25.dba482b51fa66a14774b2637363dcf1ef30f084c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-12-07 16:24:14</t>
   </si>
   <si>
     <t>8ffde44b-f40c-46dd-8d10-15b86777f9e6.798cd621e53506f55f0cd731058942690d030379.de-de.xlf</t>
@@ -280,8 +283,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -376,15 +379,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -478,11 +481,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>38</v>
@@ -534,11 +537,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
@@ -565,7 +568,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0b610a72-62f1-41d3-b4a5-c24ee819dd25.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="8ffde44b-f40c-46dd-8d10-15b86777f9e6.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="0b610a72-62f1-41d3-b4a5-c24ee819dd25.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="8ffde44b-f40c-46dd-8d10-15b86777f9e6.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="8ffde44b-f40c-46dd-8d10-15b86777f9e6.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -584,15 +589,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -686,14 +691,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -734,7 +739,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -742,14 +747,14 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -773,7 +778,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0b610a72-62f1-41d3-b4a5-c24ee819dd25.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="8ffde44b-f40c-46dd-8d10-15b86777f9e6.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="0b610a72-62f1-41d3-b4a5-c24ee819dd25.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="8ffde44b-f40c-46dd-8d10-15b86777f9e6.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="8ffde44b-f40c-46dd-8d10-15b86777f9e6.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-12-07 16:32:42</t>
@@ -130,7 +130,7 @@
     <t>2016-12-07 16:32:27</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-12-07 16:33:21</t>
   </si>
   <si>
     <t>True</t>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>09ef630b-9fca-49fd-a186-1375980c872a.afd8abbb01ff7dba9ff14eb4d82828a22c6a85b4.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-12-07 16:33:40</t>
   </si>
   <si>
     <t>a85ebcfa-2983-4d26-9552-f3e95086e2ef.1e98d433e54d1cf1779aa788a3d6488bc33f0fff.de-de.xlf</t>
@@ -280,8 +283,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -376,15 +379,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -478,11 +481,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>38</v>
@@ -534,11 +537,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
@@ -565,7 +568,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="09ef630b-9fca-49fd-a186-1375980c872a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="a85ebcfa-2983-4d26-9552-f3e95086e2ef.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="09ef630b-9fca-49fd-a186-1375980c872a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a85ebcfa-2983-4d26-9552-f3e95086e2ef.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a85ebcfa-2983-4d26-9552-f3e95086e2ef.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -584,15 +589,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -686,14 +691,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -734,7 +739,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -742,14 +747,14 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -773,7 +778,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="09ef630b-9fca-49fd-a186-1375980c872a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="a85ebcfa-2983-4d26-9552-f3e95086e2ef.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="09ef630b-9fca-49fd-a186-1375980c872a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a85ebcfa-2983-4d26-9552-f3e95086e2ef.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a85ebcfa-2983-4d26-9552-f3e95086e2ef.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -49,6 +49,9 @@
     <t/>
   </si>
   <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
@@ -130,16 +133,22 @@
     <t>2016-12-07 16:47:58</t>
   </si>
   <si>
+    <t>2016-12-07 16:48:57</t>
+  </si>
+  <si>
+    <t>API_HB1_2016120848</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>a5157359-dc3e-45a2-863f-ae8dc6c717d8.f03c25ce64ce6b004f5b99aafbd49ddb006f5ff3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>941e972a-c033-4b29-9d10-ad8950a7b7c5.10d86cc39d84ec0bc57e37f04196d6f653d6b86d.de-de.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>a5157359-dc3e-45a2-863f-ae8dc6c717d8.f03c25ce64ce6b004f5b99aafbd49ddb006f5ff3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>941e972a-c033-4b29-9d10-ad8950a7b7c5.10d86cc39d84ec0bc57e37f04196d6f653d6b86d.de-de.xlf</t>
   </si>
   <si>
     <t>a5157359-dc3e-45a2-863f-ae8dc6c717d8.f03c25ce64ce6b004f5b99aafbd49ddb006f5ff3.de-de.xlf</t>
@@ -280,7 +289,7 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
     <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
@@ -325,18 +334,18 @@
         <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>9</v>
@@ -348,10 +357,10 @@
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -376,15 +385,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -396,58 +405,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -461,46 +470,46 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>35</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -508,7 +517,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -517,46 +526,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -565,7 +574,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="941e972a-c033-4b29-9d10-ad8950a7b7c5.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="a5157359-dc3e-45a2-863f-ae8dc6c717d8.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="941e972a-c033-4b29-9d10-ad8950a7b7c5.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a5157359-dc3e-45a2-863f-ae8dc6c717d8.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a5157359-dc3e-45a2-863f-ae8dc6c717d8.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -604,58 +615,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -666,49 +677,49 @@
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -716,28 +727,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -749,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -758,13 +769,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-12-07 16:53:27</t>
@@ -130,7 +130,7 @@
     <t>2016-12-07 16:53:12</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-12-07 16:54:09</t>
   </si>
   <si>
     <t>True</t>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>323a462f-c36f-49e3-868a-fc3b3a3f6523.db5d9308aad8c0809191cd976b97375c2125431a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-12-07 16:54:28</t>
   </si>
   <si>
     <t>ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.03a0c1723a5ae4d16ecc269f3c19084f15445e02.de-de.xlf</t>
@@ -280,8 +283,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -376,15 +379,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -478,11 +481,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>38</v>
@@ -534,11 +537,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
@@ -565,7 +568,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="323a462f-c36f-49e3-868a-fc3b3a3f6523.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="323a462f-c36f-49e3-868a-fc3b3a3f6523.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -584,15 +589,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -686,14 +691,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -734,7 +739,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -742,14 +747,14 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -773,7 +778,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="323a462f-c36f-49e3-868a-fc3b3a3f6523.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="323a462f-c36f-49e3-868a-fc3b3a3f6523.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>File Name</t>
   </si>
@@ -37,48 +37,48 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>239a08b0-ece6-427a-8e32-5e4dd5db5ddf.md</t>
+  </si>
+  <si>
+    <t>e2e\239a08b0-ece6-427a-8e32-5e4dd5db5ddf.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-12-07 18:19:48</t>
+  </si>
+  <si>
     <t>323a462f-c36f-49e3-868a-fc3b3a3f6523.md</t>
   </si>
   <si>
     <t>e2e\323a462f-c36f-49e3-868a-fc3b3a3f6523.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-12-07 16:53:27</t>
   </si>
   <si>
+    <t>6e1a0553-f0ec-44c0-a582-1e05018ed7b6.md</t>
+  </si>
+  <si>
+    <t>e2e\6e1a0553-f0ec-44c0-a582-1e05018ed7b6.md</t>
+  </si>
+  <si>
     <t>ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md</t>
   </si>
   <si>
     <t>e2e\ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md</t>
   </si>
   <si>
-    <t>239a08b0-ece6-427a-8e32-5e4dd5db5ddf.md</t>
-  </si>
-  <si>
-    <t>e2e\239a08b0-ece6-427a-8e32-5e4dd5db5ddf.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-12-07 18:19:48</t>
-  </si>
-  <si>
-    <t>6e1a0553-f0ec-44c0-a582-1e05018ed7b6.md</t>
-  </si>
-  <si>
-    <t>e2e\6e1a0553-f0ec-44c0-a582-1e05018ed7b6.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -142,6 +142,21 @@
     <t>False</t>
   </si>
   <si>
+    <t>239a08b0-ece6-427a-8e32-5e4dd5db5ddf.15d902f0a92cc9b19d324b9ca6d3993c68902ca1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-12-07 18:19:34</t>
+  </si>
+  <si>
+    <t>2016-12-07 18:20:33</t>
+  </si>
+  <si>
+    <t>API_HB1_2016120820</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>323a462f-c36f-49e3-868a-fc3b3a3f6523.db5d9308aad8c0809191cd976b97375c2125431a.zh-cn.xlf</t>
   </si>
   <si>
@@ -154,34 +169,25 @@
     <t>API_HB_2016120854</t>
   </si>
   <si>
-    <t>True</t>
+    <t>6e1a0553-f0ec-44c0-a582-1e05018ed7b6.7e094016197b4a306760b0b1ca43766313d026d9.zh-cn.xlf</t>
   </si>
   <si>
     <t>ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.03a0c1723a5ae4d16ecc269f3c19084f15445e02.zh-cn.xlf</t>
   </si>
   <si>
-    <t>239a08b0-ece6-427a-8e32-5e4dd5db5ddf.15d902f0a92cc9b19d324b9ca6d3993c68902ca1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-12-07 18:19:34</t>
+    <t>323a462f-c36f-49e3-868a-fc3b3a3f6523.db5d9308aad8c0809191cd976b97375c2125431a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-12-07 16:54:28</t>
+  </si>
+  <si>
+    <t>ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.03a0c1723a5ae4d16ecc269f3c19084f15445e02.de-de.xlf</t>
+  </si>
+  <si>
+    <t>239a08b0-ece6-427a-8e32-5e4dd5db5ddf.15d902f0a92cc9b19d324b9ca6d3993c68902ca1.de-de.xlf</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>6e1a0553-f0ec-44c0-a582-1e05018ed7b6.7e094016197b4a306760b0b1ca43766313d026d9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>323a462f-c36f-49e3-868a-fc3b3a3f6523.db5d9308aad8c0809191cd976b97375c2125431a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-12-07 16:54:28</t>
-  </si>
-  <si>
-    <t>ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.03a0c1723a5ae4d16ecc269f3c19084f15445e02.de-de.xlf</t>
-  </si>
-  <si>
-    <t>239a08b0-ece6-427a-8e32-5e4dd5db5ddf.15d902f0a92cc9b19d324b9ca6d3993c68902ca1.de-de.xlf</t>
   </si>
   <si>
     <t>6e1a0553-f0ec-44c0-a582-1e05018ed7b6.7e094016197b4a306760b0b1ca43766313d026d9.de-de.xlf</t>
@@ -367,18 +373,18 @@
         <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>9</v>
@@ -393,15 +399,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -410,13 +416,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -433,21 +439,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\323a462f-c36f-49e3-868a-fc3b3a3f6523.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\239a08b0-ece6-427a-8e32-5e4dd5db5ddf.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\6e1a0553-f0ec-44c0-a582-1e05018ed7b6.md" r:id="rId5"/>
+    <hyperlink ref="B2" display="e2e\239a08b0-ece6-427a-8e32-5e4dd5db5ddf.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\323a462f-c36f-49e3-868a-fc3b3a3f6523.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\6e1a0553-f0ec-44c0-a582-1e05018ed7b6.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -598,7 +604,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -619,22 +625,22 @@
         <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
@@ -654,13 +660,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>39</v>
@@ -672,25 +678,25 @@
         <v>41</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
@@ -716,7 +722,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>39</v>
@@ -728,25 +734,25 @@
         <v>41</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
@@ -766,12 +772,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="323a462f-c36f-49e3-868a-fc3b3a3f6523.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="323a462f-c36f-49e3-868a-fc3b3a3f6523.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="239a08b0-ece6-427a-8e32-5e4dd5db5ddf.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="6e1a0553-f0ec-44c0-a582-1e05018ed7b6.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="239a08b0-ece6-427a-8e32-5e4dd5db5ddf.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="239a08b0-ece6-427a-8e32-5e4dd5db5ddf.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="323a462f-c36f-49e3-868a-fc3b3a3f6523.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="323a462f-c36f-49e3-868a-fc3b3a3f6523.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="6e1a0553-f0ec-44c0-a582-1e05018ed7b6.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="6e1a0553-f0ec-44c0-a582-1e05018ed7b6.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -866,7 +874,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>9</v>
@@ -884,25 +892,25 @@
         <v>41</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
@@ -922,7 +930,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -940,25 +948,25 @@
         <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
@@ -978,13 +986,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>39</v>
@@ -996,10 +1004,10 @@
         <v>41</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1011,7 +1019,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1034,13 +1042,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>39</v>
@@ -1052,10 +1060,10 @@
         <v>41</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -1067,7 +1075,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>File Name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>2016-12-07 18:19:48</t>
   </si>
   <si>
@@ -151,7 +148,7 @@
     <t>2016-12-07 18:20:33</t>
   </si>
   <si>
-    <t>API_HB1_2016120820</t>
+    <t>API_HB2_2016120820</t>
   </si>
   <si>
     <t>True</t>
@@ -175,22 +172,22 @@
     <t>ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.03a0c1723a5ae4d16ecc269f3c19084f15445e02.zh-cn.xlf</t>
   </si>
   <si>
+    <t>239a08b0-ece6-427a-8e32-5e4dd5db5ddf.15d902f0a92cc9b19d324b9ca6d3993c68902ca1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-12-07 18:21:15</t>
+  </si>
+  <si>
     <t>323a462f-c36f-49e3-868a-fc3b3a3f6523.db5d9308aad8c0809191cd976b97375c2125431a.de-de.xlf</t>
   </si>
   <si>
     <t>2016-12-07 16:54:28</t>
   </si>
   <si>
+    <t>6e1a0553-f0ec-44c0-a582-1e05018ed7b6.7e094016197b4a306760b0b1ca43766313d026d9.de-de.xlf</t>
+  </si>
+  <si>
     <t>ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.03a0c1723a5ae4d16ecc269f3c19084f15445e02.de-de.xlf</t>
-  </si>
-  <si>
-    <t>239a08b0-ece6-427a-8e32-5e4dd5db5ddf.15d902f0a92cc9b19d324b9ca6d3993c68902ca1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>6e1a0553-f0ec-44c0-a582-1e05018ed7b6.7e094016197b4a306760b0b1ca43766313d026d9.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -373,18 +370,18 @@
         <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>9</v>
@@ -399,15 +396,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -419,18 +416,18 @@
         <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -445,7 +442,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -492,58 +489,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -557,19 +554,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -578,25 +575,25 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -604,7 +601,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -613,46 +610,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -660,7 +657,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -669,46 +666,46 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -716,7 +713,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -725,46 +722,46 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -818,63 +815,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>9</v>
@@ -883,46 +880,46 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="M2" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -930,7 +927,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -939,46 +936,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="M3" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -986,55 +983,55 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1042,55 +1039,55 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1098,12 +1095,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="323a462f-c36f-49e3-868a-fc3b3a3f6523.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="323a462f-c36f-49e3-868a-fc3b3a3f6523.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="239a08b0-ece6-427a-8e32-5e4dd5db5ddf.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="6e1a0553-f0ec-44c0-a582-1e05018ed7b6.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="239a08b0-ece6-427a-8e32-5e4dd5db5ddf.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="239a08b0-ece6-427a-8e32-5e4dd5db5ddf.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="323a462f-c36f-49e3-868a-fc3b3a3f6523.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="323a462f-c36f-49e3-868a-fc3b3a3f6523.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="6e1a0553-f0ec-44c0-a582-1e05018ed7b6.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="6e1a0553-f0ec-44c0-a582-1e05018ed7b6.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-12-08 07:27:36</t>
@@ -130,7 +130,7 @@
     <t>2016-12-08 07:27:12</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-12-08 07:28:19</t>
   </si>
   <si>
     <t>True</t>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>813e9e03-4fc6-4ec5-a03f-ecb00fad1373.7e2ab1bc1ad91d30c3f652697fa4868dc732b96b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-12-08 07:28:38</t>
   </si>
   <si>
     <t>cc64cc7e-d456-48bd-ad0b-cd1b294a0d16.b4b7be6a9a7c30c9feea9ff2086dc878938f0f80.de-de.xlf</t>
@@ -280,8 +283,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -376,15 +379,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -478,11 +481,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>38</v>
@@ -534,11 +537,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
@@ -565,7 +568,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="813e9e03-4fc6-4ec5-a03f-ecb00fad1373.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="cc64cc7e-d456-48bd-ad0b-cd1b294a0d16.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="813e9e03-4fc6-4ec5-a03f-ecb00fad1373.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="cc64cc7e-d456-48bd-ad0b-cd1b294a0d16.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="cc64cc7e-d456-48bd-ad0b-cd1b294a0d16.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -584,15 +589,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -686,14 +691,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -734,7 +739,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -742,14 +747,14 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -773,7 +778,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="813e9e03-4fc6-4ec5-a03f-ecb00fad1373.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="cc64cc7e-d456-48bd-ad0b-cd1b294a0d16.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="813e9e03-4fc6-4ec5-a03f-ecb00fad1373.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="cc64cc7e-d456-48bd-ad0b-cd1b294a0d16.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="cc64cc7e-d456-48bd-ad0b-cd1b294a0d16.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-12-09 06:32:06</t>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>2016-12-09 06:31:44</t>
+  </si>
+  <si>
+    <t>TestHandoff_201612090232</t>
   </si>
   <si>
     <t>2016-09-28 06:59:02</t>
@@ -274,8 +277,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -346,13 +349,13 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
+    <col min="9" max="9" width="26.4051609039307" customWidth="1"/>
     <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
@@ -446,7 +449,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
@@ -455,7 +458,7 @@
         <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -464,7 +467,7 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -473,7 +476,7 @@
         <v>33</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -498,13 +501,13 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
+    <col min="9" max="9" width="26.4051609039307" customWidth="1"/>
     <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
@@ -592,22 +595,22 @@
         <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -616,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -625,7 +628,7 @@
         <v>33</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-12-09 06:32:06</t>
@@ -127,19 +127,19 @@
     <t>TestHandoff_201612090232</t>
   </si>
   <si>
-    <t>2016-09-28 06:59:02</t>
+    <t>2016-12-09 06:33:28</t>
+  </si>
+  <si>
+    <t>TestHandback_201612090233</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/723d0cac486c66411ecf89682edb1e5c3457caad/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/c86a9e9f7f4076bbe5f9bd525e0c9d391d803fd4/e2e/a.md.</t>
-  </si>
-  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-09-28 06:59:18</t>
+    <t>2016-12-09 06:33:46</t>
   </si>
 </sst>
 </file>
@@ -277,8 +277,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -349,7 +349,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -359,12 +359,12 @@
     <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
-    <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
+    <col min="13" max="13" width="28.0103492736816" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -461,13 +461,13 @@
         <v>37</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -476,7 +476,7 @@
         <v>33</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +501,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -511,12 +511,12 @@
     <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
-    <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
+    <col min="13" max="13" width="28.0103492736816" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -613,13 +613,13 @@
         <v>41</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -628,7 +628,7 @@
         <v>33</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-12-13 06:32:46</t>
+    <t>2016-12-13 06:33:36</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,7 +121,7 @@
     <t>7f65eb70-c81d-4441-b797-115298bbae1e.f82a7730ddcc4a03771d16a9eb4bb591ec643bc9.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-12-13 06:32:22</t>
+    <t>2016-12-13 06:33:22</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-12-13 06:33:36</t>
@@ -124,13 +124,16 @@
     <t>2016-12-13 06:33:22</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-12-13 06:34:13</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>7f65eb70-c81d-4441-b797-115298bbae1e.f82a7730ddcc4a03771d16a9eb4bb591ec643bc9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-12-13 06:34:31</t>
   </si>
 </sst>
 </file>
@@ -268,8 +271,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -340,15 +343,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -442,11 +445,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>36</v>
@@ -473,6 +476,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="7f65eb70-c81d-4441-b797-115298bbae1e.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="7f65eb70-c81d-4441-b797-115298bbae1e.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -491,15 +495,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -593,14 +597,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -624,6 +628,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="7f65eb70-c81d-4441-b797-115298bbae1e.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="7f65eb70-c81d-4441-b797-115298bbae1e.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
